--- a/Edits/Kawhi/Book1.xlsx
+++ b/Edits/Kawhi/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derfj\Desktop\NBAdb\NBAdb\Edits\Kawhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3ACA6E-43EB-476D-903B-AF8214C3D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE2EB1-2028-45E6-B54A-BD577D8A30AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="21000" xr2:uid="{84EB7BAE-4336-4CE3-B856-AB3D415F9563}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{84EB7BAE-4336-4CE3-B856-AB3D415F9563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="33">
   <si>
     <t>game_id</t>
   </si>
@@ -130,6 +130,12 @@
   <si>
     <t>season</t>
   </si>
+  <si>
+    <t>xRound</t>
+  </si>
+  <si>
+    <t>yRound</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +188,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="29" formatCode="mm:ss.0"/>
     </dxf>
@@ -200,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F33B221-9233-4C0A-A83D-1D62BAF68318}" name="Table1" displayName="Table1" ref="A1:T132" totalsRowShown="0">
-  <autoFilter ref="A1:T132" xr:uid="{0F33B221-9233-4C0A-A83D-1D62BAF68318}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F33B221-9233-4C0A-A83D-1D62BAF68318}" name="Table1" displayName="Table1" ref="A1:V132" totalsRowShown="0">
+  <autoFilter ref="A1:V132" xr:uid="{0F33B221-9233-4C0A-A83D-1D62BAF68318}">
     <filterColumn colId="0">
       <filters>
         <filter val="41900152"/>
@@ -218,13 +230,16 @@
         <filter val="41900237"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="left"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T132">
-    <sortCondition ref="S2:S132"/>
-    <sortCondition descending="1" ref="M2:M132"/>
-    <sortCondition descending="1" ref="R2:R132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V132">
+    <sortCondition ref="S1:S132"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{68F7F636-B701-4BDF-8D36-FDBF068E179A}" name="game_id"/>
     <tableColumn id="2" xr3:uid="{5CD9703A-1D80-48C5-8BE7-E9D40586FDF8}" name="shotType"/>
     <tableColumn id="3" xr3:uid="{9C37C81E-E715-4088-9D92-6936D063DD82}" name="actionSub"/>
@@ -232,7 +247,7 @@
     <tableColumn id="5" xr3:uid="{50BDF6CF-FAB1-4832-B178-D354529FCA52}" name="OpScore"/>
     <tableColumn id="6" xr3:uid="{D91B6831-A96C-4736-B835-F34355EFB118}" name="Lead"/>
     <tableColumn id="7" xr3:uid="{883E7827-1A13-4C39-9F43-BD1F6938E76A}" name="Q"/>
-    <tableColumn id="8" xr3:uid="{48103A4B-C503-45E5-8360-F9F9DD7820FC}" name="clock" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{48103A4B-C503-45E5-8360-F9F9DD7820FC}" name="clock" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{26854ECC-2706-4C84-8BD3-8B5A4F939BC0}" name="season"/>
     <tableColumn id="10" xr3:uid="{66CCD82F-B49C-4A94-9FF9-3AE560FD67C8}" name="Tri"/>
     <tableColumn id="11" xr3:uid="{B7C2661F-6C79-4029-AC31-7A4DDB4E103F}" name="Play" dataCellStyle="Hyperlink"/>
@@ -244,6 +259,12 @@
     <tableColumn id="17" xr3:uid="{270D1772-4A59-4554-80F0-B1D88F734ABA}" name="yLegacy"/>
     <tableColumn id="18" xr3:uid="{93CE9EF6-331D-4433-90D5-7BCF2FAA6B9B}" name="trueX"/>
     <tableColumn id="19" xr3:uid="{71505AB2-3ED0-47B1-91DA-6C54A4133BFA}" name="trueY"/>
+    <tableColumn id="22" xr3:uid="{B41E719E-095B-4715-891C-A50AC25F2B2C}" name="xRound" dataDxfId="1">
+      <calculatedColumnFormula>CEILING(Table1[[#This Row],[trueX]], 10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{4283E8E6-20D5-4A76-BAD7-F791F7780126}" name="yRound" dataDxfId="0">
+      <calculatedColumnFormula>CEILING(Table1[[#This Row],[trueY]], 10)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="20" xr3:uid="{C008D857-FA7E-491E-A026-02E36E091CC3}" name="side"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -567,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFE2598-2F2D-4DEB-827D-9FE9DFCCA431}">
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M132"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +608,7 @@
     <col min="16" max="17" width="9.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,10 +667,16 @@
         <v>17</v>
       </c>
       <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41900151</v>
       </c>
@@ -709,11 +736,19 @@
       <c r="S2">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U2">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41900154</v>
       </c>
@@ -773,11 +808,19 @@
       <c r="S3">
         <v>5</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U3">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41900151</v>
       </c>
@@ -837,13 +880,21 @@
       <c r="S4">
         <v>10</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>41900154</v>
+        <v>41900237</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -852,124 +903,140 @@
         <v>20</v>
       </c>
       <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.4375E-3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=261&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2026'%203PT%20%20(10%20PTS)%20(P.%20Beverley%206%20AST)", "26' 3PT  (10 PTS) (P. Beverley 6 AST)")</f>
+        <v>26' 3PT  (10 PTS) (P. Beverley 6 AST)</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 04:57.00")</f>
+        <v>LAC vs DEN - Q2 04:57.00</v>
+      </c>
+      <c r="M5">
+        <v>26.14</v>
+      </c>
+      <c r="N5">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="O5">
+        <v>11.1</v>
+      </c>
+      <c r="P5">
+        <v>-195</v>
+      </c>
+      <c r="Q5">
+        <v>169</v>
+      </c>
+      <c r="R5">
+        <v>76</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U5">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>41900154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>117</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>119</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>1.3425925925925925E-3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="str">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=654&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2026'%203PT%20%20(26%20PTS)%20(R.%20Jackson%202%20AST)", "26' 3PT  (26 PTS) (R. Jackson 2 AST)")</f>
         <v>26' 3PT  (26 PTS) (R. Jackson 2 AST)</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 01:56.00")</f>
         <v>LAC vs DAL - Q4 01:56.00</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>26.37</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>75.64</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>11.83</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>-191</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>176</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>75</v>
-      </c>
-      <c r="S5">
-        <v>11</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>41900237</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.4375E-3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=261&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2026'%203PT%20%20(10%20PTS)%20(P.%20Beverley%206%20AST)", "26' 3PT  (10 PTS) (P. Beverley 6 AST)")</f>
-        <v>26' 3PT  (10 PTS) (P. Beverley 6 AST)</v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 04:57.00")</f>
-        <v>LAC vs DEN - Q2 04:57.00</v>
-      </c>
-      <c r="M6">
-        <v>26.14</v>
-      </c>
-      <c r="N6">
-        <v>76.430000000000007</v>
-      </c>
-      <c r="O6">
-        <v>11.1</v>
-      </c>
-      <c r="P6">
-        <v>-195</v>
-      </c>
-      <c r="Q6">
-        <v>169</v>
-      </c>
-      <c r="R6">
-        <v>76</v>
       </c>
       <c r="S6">
         <v>11</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U6">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41900155</v>
       </c>
@@ -1029,11 +1096,19 @@
       <c r="S7">
         <v>12</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>41900151</v>
       </c>
@@ -1093,11 +1168,19 @@
       <c r="S8">
         <v>14</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U8">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41900237</v>
       </c>
@@ -1157,11 +1240,19 @@
       <c r="S9">
         <v>15</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U9">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>41900235</v>
       </c>
@@ -1221,11 +1312,19 @@
       <c r="S10">
         <v>16</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U10">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>41900152</v>
       </c>
@@ -1285,11 +1384,19 @@
       <c r="S11">
         <v>18</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="V11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41900153</v>
       </c>
@@ -1349,11 +1456,19 @@
       <c r="S12">
         <v>23</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U12">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="V12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41900151</v>
       </c>
@@ -1413,11 +1528,19 @@
       <c r="S13">
         <v>25</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41900233</v>
       </c>
@@ -1477,11 +1600,19 @@
       <c r="S14">
         <v>25</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="V14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41900153</v>
       </c>
@@ -1541,11 +1672,19 @@
       <c r="S15">
         <v>27</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="V15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>41900231</v>
       </c>
@@ -1605,11 +1744,19 @@
       <c r="S16">
         <v>29</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U16">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="V16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41900151</v>
       </c>
@@ -1669,11 +1816,19 @@
       <c r="S17">
         <v>30</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U17">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="V17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>41900151</v>
       </c>
@@ -1733,11 +1888,19 @@
       <c r="S18">
         <v>31</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U18">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>41900231</v>
       </c>
@@ -1797,11 +1960,19 @@
       <c r="S19">
         <v>31</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U19">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41900156</v>
       </c>
@@ -1861,11 +2032,19 @@
       <c r="S20">
         <v>31</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>41900234</v>
       </c>
@@ -1925,11 +2104,19 @@
       <c r="S21">
         <v>31</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>41900233</v>
       </c>
@@ -1989,11 +2176,19 @@
       <c r="S22">
         <v>31</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41900156</v>
       </c>
@@ -2053,11 +2248,19 @@
       <c r="S23">
         <v>33</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41900234</v>
       </c>
@@ -2117,11 +2320,19 @@
       <c r="S24">
         <v>34</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U24">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>41900233</v>
       </c>
@@ -2181,11 +2392,19 @@
       <c r="S25">
         <v>34</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U25">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>41900155</v>
       </c>
@@ -2245,11 +2464,19 @@
       <c r="S26">
         <v>35</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U26">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>41900155</v>
       </c>
@@ -2309,139 +2536,163 @@
       <c r="S27">
         <v>35</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U27">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>41900152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>110</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.4074074074074076E-3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=681&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2012'%20jumpshot%20(35%20PTS)", "12' jumpshot (35 PTS)")</f>
+        <v>12' jumpshot (35 PTS)</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 03:28.00")</f>
+        <v>LAC vs DAL - Q4 03:28.00</v>
+      </c>
+      <c r="M28">
+        <v>11.9</v>
+      </c>
+      <c r="N28">
+        <v>84.44</v>
+      </c>
+      <c r="O28">
+        <v>36.83</v>
+      </c>
+      <c r="P28">
+        <v>-66</v>
+      </c>
+      <c r="Q28">
+        <v>94</v>
+      </c>
+      <c r="R28">
+        <v>84</v>
+      </c>
+      <c r="S28">
+        <v>36</v>
+      </c>
+      <c r="T28">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U28">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>41900231</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
         <v>18</v>
       </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="2" t="str">
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=73&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2012'%20jumpshot%20(4%20PTS)", "12' jumpshot (4 PTS)")</f>
         <v>12' jumpshot (4 PTS)</v>
       </c>
-      <c r="L28" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 05:03.00")</f>
         <v>LAC vs DEN - Q1 05:03.00</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>12.46</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>83.92</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>36.340000000000003</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>-68</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>99</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>83</v>
-      </c>
-      <c r="S28">
-        <v>36</v>
-      </c>
-      <c r="T28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>41900152</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>110</v>
-      </c>
-      <c r="E29">
-        <v>120</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2.4074074074074076E-3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=681&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2012'%20jumpshot%20(35%20PTS)", "12' jumpshot (35 PTS)")</f>
-        <v>12' jumpshot (35 PTS)</v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 03:28.00")</f>
-        <v>LAC vs DAL - Q4 03:28.00</v>
-      </c>
-      <c r="M29">
-        <v>11.9</v>
-      </c>
-      <c r="N29">
-        <v>84.44</v>
-      </c>
-      <c r="O29">
-        <v>36.83</v>
-      </c>
-      <c r="P29">
-        <v>-66</v>
-      </c>
-      <c r="Q29">
-        <v>94</v>
-      </c>
-      <c r="R29">
-        <v>84</v>
       </c>
       <c r="S29">
         <v>36</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U29">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>41900231</v>
       </c>
@@ -2501,11 +2752,19 @@
       <c r="S30">
         <v>38</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U30">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41900237</v>
       </c>
@@ -2565,13 +2824,21 @@
       <c r="S31">
         <v>38</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U31">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>41900154</v>
+        <v>41900153</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -2580,19 +2847,19 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>6.3078703703703708E-3</v>
+        <v>3.4837962962962965E-3</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
@@ -2601,167 +2868,191 @@
         <v>22</v>
       </c>
       <c r="K32" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=419&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%209'%20jumpshot%20(20%20PTS)", "9' jumpshot (20 PTS)")</f>
+        <v>9' jumpshot (20 PTS)</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 05:01.00")</f>
+        <v>LAC vs DAL - Q3 05:01.00</v>
+      </c>
+      <c r="M32">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="N32">
+        <v>87.6</v>
+      </c>
+      <c r="O32">
+        <v>39.53</v>
+      </c>
+      <c r="P32">
+        <v>-52</v>
+      </c>
+      <c r="Q32">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>87</v>
+      </c>
+      <c r="S32">
+        <v>39</v>
+      </c>
+      <c r="T32">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U32">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>41900154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6.3078703703703708E-3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=36&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2012'%20jumpshot%20(4%20PTS)", "12' jumpshot (4 PTS)")</f>
         <v>12' jumpshot (4 PTS)</v>
       </c>
-      <c r="L32" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q1 09:05.00")</f>
         <v>LAC vs DAL - Q1 09:05.00</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>11.91</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>16.38</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>39.53</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>52</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>101</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>16</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>39</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T33">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>41900154</v>
       </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
         <v>64</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>56</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>8</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>1.0185185185185184E-3</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>24</v>
       </c>
-      <c r="J33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="2" t="str">
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=338&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2012'%20jumpshot%20(11%20PTS)", "12' jumpshot (11 PTS)")</f>
         <v>12' jumpshot (11 PTS)</v>
       </c>
-      <c r="L33" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q2 01:28.00")</f>
         <v>LAC vs DAL - Q2 01:28.00</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>11.74</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>16.11</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>39.28</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <v>54</v>
       </c>
-      <c r="Q33">
+      <c r="Q34">
         <v>99</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <v>16</v>
-      </c>
-      <c r="S33">
-        <v>39</v>
-      </c>
-      <c r="T33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>41900153</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34">
-        <v>80</v>
-      </c>
-      <c r="E34">
-        <v>68</v>
-      </c>
-      <c r="F34">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34" s="1">
-        <v>3.4837962962962965E-3</v>
-      </c>
-      <c r="I34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=419&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%209'%20jumpshot%20(20%20PTS)", "9' jumpshot (20 PTS)")</f>
-        <v>9' jumpshot (20 PTS)</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 05:01.00")</f>
-        <v>LAC vs DAL - Q3 05:01.00</v>
-      </c>
-      <c r="M34">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="N34">
-        <v>87.6</v>
-      </c>
-      <c r="O34">
-        <v>39.53</v>
-      </c>
-      <c r="P34">
-        <v>-52</v>
-      </c>
-      <c r="Q34">
-        <v>64</v>
-      </c>
-      <c r="R34">
-        <v>87</v>
       </c>
       <c r="S34">
         <v>39</v>
       </c>
-      <c r="T34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41900235</v>
       </c>
@@ -2821,11 +3112,19 @@
       <c r="S35">
         <v>40</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="U35">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>41900156</v>
       </c>
@@ -2885,11 +3184,19 @@
       <c r="S36">
         <v>40</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41900155</v>
       </c>
@@ -2949,11 +3256,19 @@
       <c r="S37">
         <v>40</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="V37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>41900234</v>
       </c>
@@ -3013,11 +3328,19 @@
       <c r="S38">
         <v>41</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U38">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>41900155</v>
       </c>
@@ -3077,11 +3400,19 @@
       <c r="S39">
         <v>41</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U39">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41900151</v>
       </c>
@@ -3141,11 +3472,19 @@
       <c r="S40">
         <v>42</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U40">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41900155</v>
       </c>
@@ -3205,11 +3544,19 @@
       <c r="S41">
         <v>42</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T41">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U41">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41900231</v>
       </c>
@@ -3269,11 +3616,19 @@
       <c r="S42">
         <v>43</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U42">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41900153</v>
       </c>
@@ -3333,139 +3688,163 @@
       <c r="S43">
         <v>43</v>
       </c>
-      <c r="T43" t="s">
+      <c r="T43">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U43">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>41900154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>119</v>
+      </c>
+      <c r="E44">
+        <v>121</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9.9537037037037042E-4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=664&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2011'%20jumpshot%20(28%20PTS)", "11' jumpshot (28 PTS)")</f>
+        <v>11' jumpshot (28 PTS)</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 01:26.00")</f>
+        <v>LAC vs DAL - Q4 01:26.00</v>
+      </c>
+      <c r="M44">
+        <v>11.32</v>
+      </c>
+      <c r="N44">
+        <v>83.26</v>
+      </c>
+      <c r="O44">
+        <v>44.92</v>
+      </c>
+      <c r="P44">
+        <v>-25</v>
+      </c>
+      <c r="Q44">
+        <v>105</v>
+      </c>
+      <c r="R44">
+        <v>83</v>
+      </c>
+      <c r="S44">
+        <v>44</v>
+      </c>
+      <c r="T44">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U44">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>41900231</v>
       </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44">
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
         <v>14</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>13</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>1</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H45" s="1">
         <v>4.7337962962962967E-3</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>21</v>
       </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="2" t="str">
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=60&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2013'%20jumpshot%20(2%20PTS)", "13' jumpshot (2 PTS)")</f>
         <v>13' jumpshot (2 PTS)</v>
       </c>
-      <c r="L44" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 06:49.00")</f>
         <v>LAC vs DEN - Q1 06:49.00</v>
       </c>
-      <c r="M44">
+      <c r="M45">
         <v>13.03</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <v>81.42</v>
       </c>
-      <c r="O44">
+      <c r="O45">
         <v>44.68</v>
       </c>
-      <c r="P44">
+      <c r="P45">
         <v>-27</v>
       </c>
-      <c r="Q44">
+      <c r="Q45">
         <v>122</v>
       </c>
-      <c r="R44">
+      <c r="R45">
         <v>81</v>
-      </c>
-      <c r="S44">
-        <v>44</v>
-      </c>
-      <c r="T44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>41900154</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <v>119</v>
-      </c>
-      <c r="E45">
-        <v>121</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1">
-        <v>9.9537037037037042E-4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=664&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2011'%20jumpshot%20(28%20PTS)", "11' jumpshot (28 PTS)")</f>
-        <v>11' jumpshot (28 PTS)</v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 01:26.00")</f>
-        <v>LAC vs DAL - Q4 01:26.00</v>
-      </c>
-      <c r="M45">
-        <v>11.32</v>
-      </c>
-      <c r="N45">
-        <v>83.26</v>
-      </c>
-      <c r="O45">
-        <v>44.92</v>
-      </c>
-      <c r="P45">
-        <v>-25</v>
-      </c>
-      <c r="Q45">
-        <v>105</v>
-      </c>
-      <c r="R45">
-        <v>83</v>
       </c>
       <c r="S45">
         <v>44</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T45">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U45">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41900151</v>
       </c>
@@ -3525,11 +3904,19 @@
       <c r="S46">
         <v>44</v>
       </c>
-      <c r="T46" t="s">
+      <c r="T46">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U46">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>41900153</v>
       </c>
@@ -3589,11 +3976,19 @@
       <c r="S47">
         <v>44</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T47">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U47">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41900236</v>
       </c>
@@ -3653,11 +4048,19 @@
       <c r="S48">
         <v>45</v>
       </c>
-      <c r="T48" t="s">
+      <c r="T48">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U48">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41900152</v>
       </c>
@@ -3717,11 +4120,19 @@
       <c r="S49">
         <v>45</v>
       </c>
-      <c r="T49" t="s">
+      <c r="T49">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U49">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>41900233</v>
       </c>
@@ -3781,11 +4192,19 @@
       <c r="S50">
         <v>46</v>
       </c>
-      <c r="T50" t="s">
+      <c r="T50">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U50">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>41900151</v>
       </c>
@@ -3845,11 +4264,19 @@
       <c r="S51">
         <v>46</v>
       </c>
-      <c r="T51" t="s">
+      <c r="T51">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U51">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>41900152</v>
       </c>
@@ -3909,715 +4336,811 @@
       <c r="S52">
         <v>46</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T52">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U52">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>41900155</v>
+        <v>41900231</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" s="1">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=86&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(6%20PTS)", "Layup (6 PTS)")</f>
+        <v>Layup (6 PTS)</v>
+      </c>
+      <c r="L53" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 04:09.00")</f>
+        <v>LAC vs DEN - Q1 04:09.00</v>
+      </c>
+      <c r="M53">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N53">
+        <v>93.25</v>
+      </c>
+      <c r="O53">
+        <v>47.62</v>
+      </c>
+      <c r="P53">
+        <v>-12</v>
+      </c>
+      <c r="Q53">
+        <v>11</v>
+      </c>
+      <c r="R53">
+        <v>93</v>
+      </c>
+      <c r="S53">
+        <v>47</v>
+      </c>
+      <c r="T53">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U53">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>41900237</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3.1944444444444446E-3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=265&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(12%20PTS)", "Layup (12 PTS)")</f>
+        <v>Layup (12 PTS)</v>
+      </c>
+      <c r="L54" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 04:36.00")</f>
+        <v>LAC vs DEN - Q2 04:36.00</v>
+      </c>
+      <c r="M54">
+        <v>1.84</v>
+      </c>
+      <c r="N54">
+        <v>93.51</v>
+      </c>
+      <c r="O54">
+        <v>47.62</v>
+      </c>
+      <c r="P54">
+        <v>-12</v>
+      </c>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <v>93</v>
+      </c>
+      <c r="S54">
+        <v>47</v>
+      </c>
+      <c r="T54">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U54">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41900233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>68</v>
+      </c>
+      <c r="E55">
+        <v>72</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=347&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(18%20PTS)", "Layup (18 PTS)")</f>
+        <v>Layup (18 PTS)</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 08:06.00")</f>
+        <v>LAC vs DEN - Q3 08:06.00</v>
+      </c>
+      <c r="M55">
+        <v>1.75</v>
+      </c>
+      <c r="N55">
+        <v>93.64</v>
+      </c>
+      <c r="O55">
+        <v>47.62</v>
+      </c>
+      <c r="P55">
+        <v>-12</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>93</v>
+      </c>
+      <c r="S55">
+        <v>47</v>
+      </c>
+      <c r="T55">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U55">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>41900155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="2" t="str">
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=43&amp;GameID=0041900155&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2014'%20jumpshot%20(4%20PTS)", "14' jumpshot (4 PTS)")</f>
         <v>14' jumpshot (4 PTS)</v>
       </c>
-      <c r="L53" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900155/play-by-play?watchFullGame=true", "LAC vs DAL - Q1 07:45.00")</f>
         <v>LAC vs DAL - Q1 07:45.00</v>
       </c>
-      <c r="M53">
+      <c r="M56">
         <v>13.7</v>
       </c>
-      <c r="N53">
+      <c r="N56">
         <v>19.53</v>
       </c>
-      <c r="O53">
+      <c r="O56">
         <v>47.86</v>
       </c>
-      <c r="P53">
+      <c r="P56">
         <v>11</v>
       </c>
-      <c r="Q53">
+      <c r="Q56">
         <v>131</v>
       </c>
-      <c r="R53">
-        <v>19</v>
-      </c>
-      <c r="S53">
+      <c r="R56">
+        <v>19</v>
+      </c>
+      <c r="S56">
         <v>47</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T56">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U56">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>41900234</v>
       </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54">
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57">
         <v>39</v>
       </c>
-      <c r="E54">
+      <c r="E57">
         <v>23</v>
       </c>
-      <c r="F54">
+      <c r="F57">
         <v>16</v>
       </c>
-      <c r="G54">
+      <c r="G57">
         <v>2</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H57" s="1">
         <v>5.2546296296296299E-3</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I57" t="s">
         <v>21</v>
       </c>
-      <c r="J54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="2" t="str">
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=242&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%207'%20jumpshot%20(11%20PTS)", "7' jumpshot (11 PTS)")</f>
         <v>7' jumpshot (11 PTS)</v>
       </c>
-      <c r="L54" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 07:34.00")</f>
         <v>LAC vs DEN - Q2 07:34.00</v>
       </c>
-      <c r="M54">
+      <c r="M57">
         <v>7.14</v>
       </c>
-      <c r="N54">
+      <c r="N57">
         <v>12.43</v>
       </c>
-      <c r="O54">
+      <c r="O57">
         <v>47.13</v>
       </c>
-      <c r="P54">
+      <c r="P57">
         <v>14</v>
       </c>
-      <c r="Q54">
+      <c r="Q57">
         <v>64</v>
       </c>
-      <c r="R54">
+      <c r="R57">
         <v>12</v>
-      </c>
-      <c r="S54">
-        <v>47</v>
-      </c>
-      <c r="T54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>41900231</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="E55">
-        <v>24</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2.8819444444444444E-3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=86&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(6%20PTS)", "Layup (6 PTS)")</f>
-        <v>Layup (6 PTS)</v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 04:09.00")</f>
-        <v>LAC vs DEN - Q1 04:09.00</v>
-      </c>
-      <c r="M55">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="N55">
-        <v>93.25</v>
-      </c>
-      <c r="O55">
-        <v>47.62</v>
-      </c>
-      <c r="P55">
-        <v>-12</v>
-      </c>
-      <c r="Q55">
-        <v>11</v>
-      </c>
-      <c r="R55">
-        <v>93</v>
-      </c>
-      <c r="S55">
-        <v>47</v>
-      </c>
-      <c r="T55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>41900237</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56">
-        <v>50</v>
-      </c>
-      <c r="E56">
-        <v>38</v>
-      </c>
-      <c r="F56">
-        <v>12</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56" s="1">
-        <v>3.1944444444444446E-3</v>
-      </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=265&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(12%20PTS)", "Layup (12 PTS)")</f>
-        <v>Layup (12 PTS)</v>
-      </c>
-      <c r="L56" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 04:36.00")</f>
-        <v>LAC vs DEN - Q2 04:36.00</v>
-      </c>
-      <c r="M56">
-        <v>1.84</v>
-      </c>
-      <c r="N56">
-        <v>93.51</v>
-      </c>
-      <c r="O56">
-        <v>47.62</v>
-      </c>
-      <c r="P56">
-        <v>-12</v>
-      </c>
-      <c r="Q56">
-        <v>8</v>
-      </c>
-      <c r="R56">
-        <v>93</v>
-      </c>
-      <c r="S56">
-        <v>47</v>
-      </c>
-      <c r="T56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>41900233</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57">
-        <v>68</v>
-      </c>
-      <c r="E57">
-        <v>72</v>
-      </c>
-      <c r="F57">
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1">
-        <v>5.6249999999999998E-3</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=347&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(18%20PTS)", "Layup (18 PTS)")</f>
-        <v>Layup (18 PTS)</v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 08:06.00")</f>
-        <v>LAC vs DEN - Q3 08:06.00</v>
-      </c>
-      <c r="M57">
-        <v>1.75</v>
-      </c>
-      <c r="N57">
-        <v>93.64</v>
-      </c>
-      <c r="O57">
-        <v>47.62</v>
-      </c>
-      <c r="P57">
-        <v>-12</v>
-      </c>
-      <c r="Q57">
-        <v>7</v>
-      </c>
-      <c r="R57">
-        <v>93</v>
       </c>
       <c r="S57">
         <v>47</v>
       </c>
-      <c r="T57" t="s">
+      <c r="T57">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U57">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>41900231</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>53</v>
+      </c>
+      <c r="E58">
+        <v>43</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3.0208333333333333E-3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=251&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(17%20PTS)%20(P.%20Beverley%202%20AST)", "Dunk (17 PTS) (P. Beverley 2 AST)")</f>
+        <v>Dunk (17 PTS) (P. Beverley 2 AST)</v>
+      </c>
+      <c r="L58" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 04:21.00")</f>
+        <v>LAC vs DEN - Q2 04:21.00</v>
+      </c>
+      <c r="M58">
+        <v>1.67</v>
+      </c>
+      <c r="N58">
+        <v>93.38</v>
+      </c>
+      <c r="O58">
+        <v>48.6</v>
+      </c>
+      <c r="P58">
+        <v>-7</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>93</v>
+      </c>
+      <c r="S58">
+        <v>48</v>
+      </c>
+      <c r="T58">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U58">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>41900153</v>
       </c>
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58">
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>120</v>
+      </c>
+      <c r="E59">
+        <v>108</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3.7268518518518519E-3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=603&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(34%20PTS)", "Dunk (34 PTS)")</f>
+        <v>Dunk (34 PTS)</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 05:22.00")</f>
+        <v>LAC vs DAL - Q4 05:22.00</v>
+      </c>
+      <c r="M59">
+        <v>1.57</v>
+      </c>
+      <c r="N59">
+        <v>93.51</v>
+      </c>
+      <c r="O59">
+        <v>48.6</v>
+      </c>
+      <c r="P59">
+        <v>-7</v>
+      </c>
+      <c r="Q59">
         <v>8</v>
       </c>
-      <c r="E58">
+      <c r="R59">
+        <v>93</v>
+      </c>
+      <c r="S59">
+        <v>48</v>
+      </c>
+      <c r="T59">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U59">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>41900152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>88</v>
+      </c>
+      <c r="E60">
+        <v>98</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7.6157407407407406E-3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=565&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(29%20PTS)", "Dunk (29 PTS)")</f>
+        <v>Dunk (29 PTS)</v>
+      </c>
+      <c r="L60" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 10:58.00")</f>
+        <v>LAC vs DAL - Q4 10:58.00</v>
+      </c>
+      <c r="M60">
+        <v>1.35</v>
+      </c>
+      <c r="N60">
+        <v>93.77</v>
+      </c>
+      <c r="O60">
+        <v>48.6</v>
+      </c>
+      <c r="P60">
+        <v>-7</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>93</v>
+      </c>
+      <c r="S60">
+        <v>48</v>
+      </c>
+      <c r="T60">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U60">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>41900152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8.1134259259259267E-3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=363&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(20%20PTS)", "Layup (20 PTS)")</f>
+        <v>Layup (20 PTS)</v>
+      </c>
+      <c r="L61" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 11:41.00")</f>
+        <v>LAC vs DAL - Q3 11:41.00</v>
+      </c>
+      <c r="M61">
+        <v>3.03</v>
+      </c>
+      <c r="N61">
+        <v>91.93</v>
+      </c>
+      <c r="O61">
+        <v>48.11</v>
+      </c>
+      <c r="P61">
+        <v>-9</v>
+      </c>
+      <c r="Q61">
+        <v>23</v>
+      </c>
+      <c r="R61">
+        <v>91</v>
+      </c>
+      <c r="S61">
+        <v>48</v>
+      </c>
+      <c r="T61">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U61">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>41900153</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
         <v>9</v>
       </c>
-      <c r="F58">
+      <c r="F62">
         <v>1</v>
       </c>
-      <c r="G58">
+      <c r="G62">
         <v>1</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H62" s="1">
         <v>5.6481481481481478E-3</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I62" t="s">
         <v>24</v>
       </c>
-      <c r="J58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="2" t="str">
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=40&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%208'%20jumpshot%20(4%20PTS)", "8' jumpshot (4 PTS)")</f>
         <v>8' jumpshot (4 PTS)</v>
       </c>
-      <c r="L58" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q1 08:08.00")</f>
         <v>LAC vs DAL - Q1 08:08.00</v>
       </c>
-      <c r="M58">
+      <c r="M62">
         <v>8.16</v>
       </c>
-      <c r="N58">
+      <c r="N62">
         <v>13.62</v>
       </c>
-      <c r="O58">
+      <c r="O62">
         <v>48.11</v>
       </c>
-      <c r="P58">
+      <c r="P62">
         <v>9</v>
       </c>
-      <c r="Q58">
+      <c r="Q62">
         <v>75</v>
       </c>
-      <c r="R58">
+      <c r="R62">
         <v>13</v>
       </c>
-      <c r="S58">
+      <c r="S62">
         <v>48</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T62">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U62">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>41900152</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>41900234</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
         <v>25</v>
       </c>
-      <c r="D59">
-        <v>58</v>
-      </c>
-      <c r="E59">
-        <v>61</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59" s="1">
-        <v>8.1134259259259267E-3</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="D63">
         <v>24</v>
       </c>
-      <c r="J59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=363&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(20%20PTS)", "Layup (20 PTS)")</f>
-        <v>Layup (20 PTS)</v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 11:41.00")</f>
-        <v>LAC vs DAL - Q3 11:41.00</v>
-      </c>
-      <c r="M59">
-        <v>3.03</v>
-      </c>
-      <c r="N59">
-        <v>91.93</v>
-      </c>
-      <c r="O59">
-        <v>48.11</v>
-      </c>
-      <c r="P59">
-        <v>-9</v>
-      </c>
-      <c r="Q59">
-        <v>23</v>
-      </c>
-      <c r="R59">
-        <v>91</v>
-      </c>
-      <c r="S59">
-        <v>48</v>
-      </c>
-      <c r="T59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>41900234</v>
-      </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60">
-        <v>24</v>
-      </c>
-      <c r="E60">
+      <c r="E63">
         <v>7</v>
       </c>
-      <c r="F60">
+      <c r="F63">
         <v>17</v>
       </c>
-      <c r="G60">
+      <c r="G63">
         <v>1</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H63" s="1">
         <v>1.6782407407407408E-3</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I63" t="s">
         <v>21</v>
       </c>
-      <c r="J60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="2" t="str">
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=131&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(7%20PTS)", "Layup (7 PTS)")</f>
         <v>Layup (7 PTS)</v>
       </c>
-      <c r="L60" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 02:25.00")</f>
         <v>LAC vs DEN - Q1 02:25.00</v>
       </c>
-      <c r="M60">
+      <c r="M63">
         <v>1.72</v>
       </c>
-      <c r="N60">
+      <c r="N63">
         <v>6.52</v>
       </c>
-      <c r="O60">
+      <c r="O63">
         <v>48.11</v>
       </c>
-      <c r="P60">
+      <c r="P63">
         <v>9</v>
       </c>
-      <c r="Q60">
+      <c r="Q63">
         <v>9</v>
       </c>
-      <c r="R60">
+      <c r="R63">
         <v>6</v>
-      </c>
-      <c r="S60">
-        <v>48</v>
-      </c>
-      <c r="T60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>41900231</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61">
-        <v>53</v>
-      </c>
-      <c r="E61">
-        <v>43</v>
-      </c>
-      <c r="F61">
-        <v>10</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" s="1">
-        <v>3.0208333333333333E-3</v>
-      </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=251&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(17%20PTS)%20(P.%20Beverley%202%20AST)", "Dunk (17 PTS) (P. Beverley 2 AST)")</f>
-        <v>Dunk (17 PTS) (P. Beverley 2 AST)</v>
-      </c>
-      <c r="L61" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 04:21.00")</f>
-        <v>LAC vs DEN - Q2 04:21.00</v>
-      </c>
-      <c r="M61">
-        <v>1.67</v>
-      </c>
-      <c r="N61">
-        <v>93.38</v>
-      </c>
-      <c r="O61">
-        <v>48.6</v>
-      </c>
-      <c r="P61">
-        <v>-7</v>
-      </c>
-      <c r="Q61">
-        <v>10</v>
-      </c>
-      <c r="R61">
-        <v>93</v>
-      </c>
-      <c r="S61">
-        <v>48</v>
-      </c>
-      <c r="T61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>41900153</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62">
-        <v>120</v>
-      </c>
-      <c r="E62">
-        <v>108</v>
-      </c>
-      <c r="F62">
-        <v>12</v>
-      </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="H62" s="1">
-        <v>3.7268518518518519E-3</v>
-      </c>
-      <c r="I62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=603&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(34%20PTS)", "Dunk (34 PTS)")</f>
-        <v>Dunk (34 PTS)</v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 05:22.00")</f>
-        <v>LAC vs DAL - Q4 05:22.00</v>
-      </c>
-      <c r="M62">
-        <v>1.57</v>
-      </c>
-      <c r="N62">
-        <v>93.51</v>
-      </c>
-      <c r="O62">
-        <v>48.6</v>
-      </c>
-      <c r="P62">
-        <v>-7</v>
-      </c>
-      <c r="Q62">
-        <v>8</v>
-      </c>
-      <c r="R62">
-        <v>93</v>
-      </c>
-      <c r="S62">
-        <v>48</v>
-      </c>
-      <c r="T62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>41900152</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63">
-        <v>88</v>
-      </c>
-      <c r="E63">
-        <v>98</v>
-      </c>
-      <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63">
-        <v>4</v>
-      </c>
-      <c r="H63" s="1">
-        <v>7.6157407407407406E-3</v>
-      </c>
-      <c r="I63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=565&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(29%20PTS)", "Dunk (29 PTS)")</f>
-        <v>Dunk (29 PTS)</v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 10:58.00")</f>
-        <v>LAC vs DAL - Q4 10:58.00</v>
-      </c>
-      <c r="M63">
-        <v>1.35</v>
-      </c>
-      <c r="N63">
-        <v>93.77</v>
-      </c>
-      <c r="O63">
-        <v>48.6</v>
-      </c>
-      <c r="P63">
-        <v>-7</v>
-      </c>
-      <c r="Q63">
-        <v>6</v>
-      </c>
-      <c r="R63">
-        <v>93</v>
       </c>
       <c r="S63">
         <v>48</v>
       </c>
-      <c r="T63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U63">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>41900154</v>
       </c>
@@ -4677,75 +5200,91 @@
       <c r="S64">
         <v>48</v>
       </c>
-      <c r="T64" t="s">
+      <c r="T64">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U64">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>41900236</v>
+        <v>41900153</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>1.5740740740740741E-3</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
       </c>
       <c r="K65" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=40&amp;GameID=0041900236&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2027'%203PT%20%20(3%20PTS)%20(P.%20Beverley%201%20AST)", "27' 3PT  (3 PTS) (P. Beverley 1 AST)")</f>
-        <v>27' 3PT  (3 PTS) (P. Beverley 1 AST)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=458&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%206'%20jumpshot%20(25%20PTS)", "6' jumpshot (25 PTS)")</f>
+        <v>6' jumpshot (25 PTS)</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900236/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 08:50.00")</f>
-        <v>LAC vs DEN - Q1 08:50.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 02:16.00")</f>
+        <v>LAC vs DAL - Q3 02:16.00</v>
       </c>
       <c r="M65">
-        <v>26.75</v>
+        <v>6.11</v>
       </c>
       <c r="N65">
-        <v>33.46</v>
+        <v>88.52</v>
       </c>
       <c r="O65">
-        <v>49.82</v>
+        <v>49.09</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="Q65">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="R65">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="S65">
         <v>49</v>
       </c>
-      <c r="T65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U65">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>41900156</v>
       </c>
@@ -4805,75 +5344,91 @@
       <c r="S66">
         <v>49</v>
       </c>
-      <c r="T66" t="s">
+      <c r="T66">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U66">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>41900153</v>
+        <v>41900236</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1">
-        <v>1.5740740740740741E-3</v>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="I67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=458&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%206'%20jumpshot%20(25%20PTS)", "6' jumpshot (25 PTS)")</f>
-        <v>6' jumpshot (25 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=40&amp;GameID=0041900236&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2027'%203PT%20%20(3%20PTS)%20(P.%20Beverley%201%20AST)", "27' 3PT  (3 PTS) (P. Beverley 1 AST)")</f>
+        <v>27' 3PT  (3 PTS) (P. Beverley 1 AST)</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 02:16.00")</f>
-        <v>LAC vs DAL - Q3 02:16.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900236/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 08:50.00")</f>
+        <v>LAC vs DEN - Q1 08:50.00</v>
       </c>
       <c r="M67">
-        <v>6.11</v>
+        <v>26.75</v>
       </c>
       <c r="N67">
-        <v>88.52</v>
+        <v>33.46</v>
       </c>
       <c r="O67">
-        <v>49.09</v>
+        <v>49.82</v>
       </c>
       <c r="P67">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="R67">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="S67">
         <v>49</v>
       </c>
-      <c r="T67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="U67">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>41900151</v>
       </c>
@@ -4933,11 +5488,19 @@
       <c r="S68">
         <v>49</v>
       </c>
-      <c r="T68" t="s">
+      <c r="T68">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U68">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V68" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>41900155</v>
       </c>
@@ -4997,34 +5560,42 @@
       <c r="S69">
         <v>49</v>
       </c>
-      <c r="T69" t="s">
+      <c r="T69">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U69">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>41900233</v>
+        <v>41900234</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E70">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H70" s="1">
-        <v>2.0949074074074073E-3</v>
+        <v>3.9814814814814817E-3</v>
       </c>
       <c r="I70" t="s">
         <v>21</v>
@@ -5033,39 +5604,47 @@
         <v>22</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=272&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2026'%203PT%20%20(12%20PTS)", "26' 3PT  (12 PTS)")</f>
-        <v>26' 3PT  (12 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=589&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(28%20PTS)", "Layup (28 PTS)")</f>
+        <v>Layup (28 PTS)</v>
       </c>
       <c r="L70" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 03:01.00")</f>
-        <v>LAC vs DEN - Q2 03:01.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q4 05:44.00")</f>
+        <v>LAC vs DEN - Q4 05:44.00</v>
       </c>
       <c r="M70">
-        <v>25.89</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N70">
-        <v>32.54</v>
+        <v>94.56</v>
       </c>
       <c r="O70">
-        <v>50.07</v>
+        <v>50.8</v>
       </c>
       <c r="P70">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>253</v>
+        <v>-1</v>
       </c>
       <c r="R70">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="S70">
         <v>50</v>
       </c>
-      <c r="T70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U70">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>41900231</v>
       </c>
@@ -5073,22 +5652,22 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E71">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F71">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="1">
-        <v>4.5601851851851853E-3</v>
+        <v>3.6111111111111109E-3</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
@@ -5097,41 +5676,49 @@
         <v>22</v>
       </c>
       <c r="K71" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=386&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2015'%20jumpshot%20(25%20PTS)", "15' jumpshot (25 PTS)")</f>
-        <v>15' jumpshot (25 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=244&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(15%20PTS)", "Dunk (15 PTS)")</f>
+        <v>Dunk (15 PTS)</v>
       </c>
       <c r="L71" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 06:34.00")</f>
-        <v>LAC vs DEN - Q3 06:34.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 05:12.00")</f>
+        <v>LAC vs DEN - Q2 05:12.00</v>
       </c>
       <c r="M71">
-        <v>15.03</v>
+        <v>1.67</v>
       </c>
       <c r="N71">
-        <v>20.98</v>
+        <v>93.25</v>
       </c>
       <c r="O71">
-        <v>50.8</v>
+        <v>50.56</v>
       </c>
       <c r="P71">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="R71">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="S71">
         <v>50</v>
       </c>
-      <c r="T71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U71">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>41900231</v>
+        <v>41900232</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -5140,19 +5727,19 @@
         <v>20</v>
       </c>
       <c r="D72">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
-        <v>3.3796296296296296E-3</v>
+        <v>1.8402777777777777E-3</v>
       </c>
       <c r="I72" t="s">
         <v>21</v>
@@ -5161,39 +5748,47 @@
         <v>22</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=403&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(27%20PTS)", "Jumpshot (27 PTS)")</f>
-        <v>Jumpshot (27 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=293&amp;GameID=0041900232&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(8%20PTS)", "Jumpshot (8 PTS)")</f>
+        <v>Jumpshot (8 PTS)</v>
       </c>
       <c r="L72" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 04:52.00")</f>
-        <v>LAC vs DEN - Q3 04:52.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900232/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 02:39.00")</f>
+        <v>LAC vs DEN - Q2 02:39.00</v>
       </c>
       <c r="M72">
-        <v>5.01</v>
+        <v>2.54</v>
       </c>
       <c r="N72">
-        <v>10.33</v>
+        <v>92.33</v>
       </c>
       <c r="O72">
-        <v>50.31</v>
+        <v>50.8</v>
       </c>
       <c r="P72">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="S72">
         <v>50</v>
       </c>
-      <c r="T72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U72">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>41900236</v>
       </c>
@@ -5253,34 +5848,42 @@
       <c r="S73">
         <v>50</v>
       </c>
-      <c r="T73" t="s">
+      <c r="T73">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U73">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>41900232</v>
+        <v>41900233</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E74">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F74">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74" s="1">
-        <v>1.8402777777777777E-3</v>
+        <v>2.0949074074074073E-3</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -5289,39 +5892,47 @@
         <v>22</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=293&amp;GameID=0041900232&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(8%20PTS)", "Jumpshot (8 PTS)")</f>
-        <v>Jumpshot (8 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=272&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2026'%203PT%20%20(12%20PTS)", "26' 3PT  (12 PTS)")</f>
+        <v>26' 3PT  (12 PTS)</v>
       </c>
       <c r="L74" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900232/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 02:39.00")</f>
-        <v>LAC vs DEN - Q2 02:39.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 03:01.00")</f>
+        <v>LAC vs DEN - Q2 03:01.00</v>
       </c>
       <c r="M74">
-        <v>2.54</v>
+        <v>25.89</v>
       </c>
       <c r="N74">
-        <v>92.33</v>
+        <v>32.54</v>
       </c>
       <c r="O74">
-        <v>50.8</v>
+        <v>50.07</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q74">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="R74">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="S74">
         <v>50</v>
       </c>
-      <c r="T74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>40</v>
+      </c>
+      <c r="U74">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>41900231</v>
       </c>
@@ -5329,22 +5940,22 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" s="1">
-        <v>3.6111111111111109E-3</v>
+        <v>4.5601851851851853E-3</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -5353,62 +5964,70 @@
         <v>22</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=244&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(15%20PTS)", "Dunk (15 PTS)")</f>
-        <v>Dunk (15 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=386&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2015'%20jumpshot%20(25%20PTS)", "15' jumpshot (25 PTS)")</f>
+        <v>15' jumpshot (25 PTS)</v>
       </c>
       <c r="L75" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 05:12.00")</f>
-        <v>LAC vs DEN - Q2 05:12.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 06:34.00")</f>
+        <v>LAC vs DEN - Q3 06:34.00</v>
       </c>
       <c r="M75">
-        <v>1.67</v>
+        <v>15.03</v>
       </c>
       <c r="N75">
-        <v>93.25</v>
+        <v>20.98</v>
       </c>
       <c r="O75">
-        <v>50.56</v>
+        <v>50.8</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="Q75">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="R75">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="S75">
         <v>50</v>
       </c>
-      <c r="T75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>41900234</v>
+        <v>41900231</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>87</v>
+      </c>
+      <c r="E76">
+        <v>62</v>
+      </c>
+      <c r="F76">
         <v>25</v>
       </c>
-      <c r="D76">
-        <v>11</v>
-      </c>
-      <c r="E76">
+      <c r="G76">
         <v>3</v>
       </c>
-      <c r="F76">
-        <v>8</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
       <c r="H76" s="1">
-        <v>4.6643518518518518E-3</v>
+        <v>3.3796296296296296E-3</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -5417,510 +6036,574 @@
         <v>22</v>
       </c>
       <c r="K76" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=403&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(27%20PTS)", "Jumpshot (27 PTS)")</f>
+        <v>Jumpshot (27 PTS)</v>
+      </c>
+      <c r="L76" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 04:52.00")</f>
+        <v>LAC vs DEN - Q3 04:52.00</v>
+      </c>
+      <c r="M76">
+        <v>5.01</v>
+      </c>
+      <c r="N76">
+        <v>10.33</v>
+      </c>
+      <c r="O76">
+        <v>50.31</v>
+      </c>
+      <c r="P76">
+        <v>-2</v>
+      </c>
+      <c r="Q76">
+        <v>45</v>
+      </c>
+      <c r="R76">
+        <v>10</v>
+      </c>
+      <c r="S76">
+        <v>50</v>
+      </c>
+      <c r="T76">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U76">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>41900234</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=73&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(2%20PTS)", "Layup (2 PTS)")</f>
         <v>Layup (2 PTS)</v>
       </c>
-      <c r="L76" s="2" t="str">
+      <c r="L77" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 06:43.00")</f>
         <v>LAC vs DEN - Q1 06:43.00</v>
       </c>
-      <c r="M76">
+      <c r="M77">
         <v>1.32</v>
       </c>
-      <c r="N76">
+      <c r="N77">
         <v>6.39</v>
       </c>
-      <c r="O76">
+      <c r="O77">
         <v>50.31</v>
       </c>
-      <c r="P76">
+      <c r="P77">
         <v>-2</v>
       </c>
-      <c r="Q76">
+      <c r="Q77">
         <v>8</v>
       </c>
-      <c r="R76">
+      <c r="R77">
         <v>6</v>
       </c>
-      <c r="S76">
+      <c r="S77">
         <v>50</v>
       </c>
-      <c r="T76" t="s">
+      <c r="T77">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U77">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>41900233</v>
       </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
         <v>25</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>51</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>57</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>6</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>2</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H78" s="1">
         <v>1.8518518518518519E-3</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>21</v>
       </c>
-      <c r="J77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="2" t="str">
+      <c r="J78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=275&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(14%20PTS)%20(M.%20Morris%20Sr.%202%20AST)", "Layup (14 PTS) (M. Morris Sr. 2 AST)")</f>
         <v>Layup (14 PTS) (M. Morris Sr. 2 AST)</v>
       </c>
-      <c r="L77" s="2" t="str">
+      <c r="L78" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 02:40.00")</f>
         <v>LAC vs DEN - Q2 02:40.00</v>
       </c>
-      <c r="M77">
+      <c r="M78">
         <v>1.18</v>
       </c>
-      <c r="N77">
+      <c r="N78">
         <v>6.26</v>
       </c>
-      <c r="O77">
+      <c r="O78">
         <v>50.07</v>
       </c>
-      <c r="P77">
+      <c r="P78">
         <v>6</v>
       </c>
-      <c r="Q77">
+      <c r="Q78">
         <v>6</v>
       </c>
-      <c r="R77">
+      <c r="R78">
         <v>6</v>
-      </c>
-      <c r="S77">
-        <v>50</v>
-      </c>
-      <c r="T77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>41900234</v>
-      </c>
-      <c r="B78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78">
-        <v>88</v>
-      </c>
-      <c r="E78">
-        <v>69</v>
-      </c>
-      <c r="F78">
-        <v>19</v>
-      </c>
-      <c r="G78">
-        <v>4</v>
-      </c>
-      <c r="H78" s="1">
-        <v>3.9814814814814817E-3</v>
-      </c>
-      <c r="I78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=589&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(28%20PTS)", "Layup (28 PTS)")</f>
-        <v>Layup (28 PTS)</v>
-      </c>
-      <c r="L78" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q4 05:44.00")</f>
-        <v>LAC vs DEN - Q4 05:44.00</v>
-      </c>
-      <c r="M78">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N78">
-        <v>94.56</v>
-      </c>
-      <c r="O78">
-        <v>50.8</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>-1</v>
-      </c>
-      <c r="R78">
-        <v>94</v>
       </c>
       <c r="S78">
         <v>50</v>
       </c>
-      <c r="T78" t="s">
+      <c r="T78">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U78">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>50</v>
+      </c>
+      <c r="V78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>41900156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>64</v>
+      </c>
+      <c r="E79">
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>7.3148148148148148E-3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=335&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(16%20PTS)%20(L.%20Shamet%203%20AST)", "Dunk (16 PTS) (L. Shamet 3 AST)")</f>
+        <v>Dunk (16 PTS) (L. Shamet 3 AST)</v>
+      </c>
+      <c r="L79" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 10:32.00")</f>
+        <v>LAC vs DAL - Q3 10:32.00</v>
+      </c>
+      <c r="M79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N79">
+        <v>94.17</v>
+      </c>
+      <c r="O79">
+        <v>51.54</v>
+      </c>
+      <c r="P79">
+        <v>8</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>94</v>
+      </c>
+      <c r="S79">
+        <v>51</v>
+      </c>
+      <c r="T79">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U79">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V79" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>41900231</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80">
+        <v>31</v>
+      </c>
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.6643518518518513E-4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=124&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(10%20PTS)%20(L.%20Williams%201%20AST)", "Layup (10 PTS) (L. Williams 1 AST)")</f>
+        <v>Layup (10 PTS) (L. Williams 1 AST)</v>
+      </c>
+      <c r="L80" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 00:40.30")</f>
+        <v>LAC vs DEN - Q1 00:40.30</v>
+      </c>
+      <c r="M80">
+        <v>0.84</v>
+      </c>
+      <c r="N80">
+        <v>94.3</v>
+      </c>
+      <c r="O80">
+        <v>51.05</v>
+      </c>
+      <c r="P80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>94</v>
+      </c>
+      <c r="S80">
+        <v>51</v>
+      </c>
+      <c r="T80">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U80">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>41900156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>93</v>
+      </c>
+      <c r="E81">
+        <v>84</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>5.8217592592592592E-3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=528&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(27%20PTS)", "Dunk (27 PTS)")</f>
+        <v>Dunk (27 PTS)</v>
+      </c>
+      <c r="L81" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 08:23.00")</f>
+        <v>LAC vs DAL - Q4 08:23.00</v>
+      </c>
+      <c r="M81">
+        <v>3.1</v>
+      </c>
+      <c r="N81">
+        <v>91.8</v>
+      </c>
+      <c r="O81">
+        <v>51.54</v>
+      </c>
+      <c r="P81">
+        <v>8</v>
+      </c>
+      <c r="Q81">
+        <v>25</v>
+      </c>
+      <c r="R81">
+        <v>91</v>
+      </c>
+      <c r="S81">
+        <v>51</v>
+      </c>
+      <c r="T81">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U81">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>41900232</v>
       </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79">
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
         <v>15</v>
       </c>
-      <c r="E79">
+      <c r="E82">
         <v>25</v>
       </c>
-      <c r="F79">
+      <c r="F82">
         <v>10</v>
       </c>
-      <c r="G79">
+      <c r="G82">
         <v>1</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H82" s="1">
         <v>2.9976851851851853E-3</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I82" t="s">
         <v>21</v>
       </c>
-      <c r="J79" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="2" t="str">
+      <c r="J82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=97&amp;GameID=0041900232&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%209'%20jumpshot%20(4%20PTS)", "9' jumpshot (4 PTS)")</f>
         <v>9' jumpshot (4 PTS)</v>
       </c>
-      <c r="L79" s="2" t="str">
+      <c r="L82" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900232/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 04:19.00")</f>
         <v>LAC vs DEN - Q1 04:19.00</v>
       </c>
-      <c r="M79">
+      <c r="M82">
         <v>8.85</v>
       </c>
-      <c r="N79">
+      <c r="N82">
         <v>85.63</v>
       </c>
-      <c r="O79">
+      <c r="O82">
         <v>51.78</v>
       </c>
-      <c r="P79">
+      <c r="P82">
         <v>9</v>
       </c>
-      <c r="Q79">
+      <c r="Q82">
         <v>83</v>
       </c>
-      <c r="R79">
+      <c r="R82">
         <v>85</v>
       </c>
-      <c r="S79">
+      <c r="S82">
         <v>51</v>
       </c>
-      <c r="T79" t="s">
+      <c r="T82">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U82">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V82" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>41900156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>41900153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
         <v>26</v>
       </c>
-      <c r="D80">
-        <v>93</v>
-      </c>
-      <c r="E80">
-        <v>84</v>
-      </c>
-      <c r="F80">
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>41</v>
+      </c>
+      <c r="F83">
         <v>9</v>
       </c>
-      <c r="G80">
-        <v>4</v>
-      </c>
-      <c r="H80" s="1">
-        <v>5.8217592592592592E-3</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2.7893518518518519E-3</v>
+      </c>
+      <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=528&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(27%20PTS)", "Dunk (27 PTS)")</f>
-        <v>Dunk (27 PTS)</v>
-      </c>
-      <c r="L80" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 08:23.00")</f>
-        <v>LAC vs DAL - Q4 08:23.00</v>
-      </c>
-      <c r="M80">
-        <v>3.1</v>
-      </c>
-      <c r="N80">
-        <v>91.8</v>
-      </c>
-      <c r="O80">
-        <v>51.54</v>
-      </c>
-      <c r="P80">
-        <v>8</v>
-      </c>
-      <c r="Q80">
-        <v>25</v>
-      </c>
-      <c r="R80">
-        <v>91</v>
-      </c>
-      <c r="S80">
-        <v>51</v>
-      </c>
-      <c r="T80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>41900156</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81">
-        <v>64</v>
-      </c>
-      <c r="E81">
-        <v>51</v>
-      </c>
-      <c r="F81">
-        <v>13</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="H81" s="1">
-        <v>7.3148148148148148E-3</v>
-      </c>
-      <c r="I81" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=335&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(16%20PTS)%20(L.%20Shamet%203%20AST)", "Dunk (16 PTS) (L. Shamet 3 AST)")</f>
-        <v>Dunk (16 PTS) (L. Shamet 3 AST)</v>
-      </c>
-      <c r="L81" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 10:32.00")</f>
-        <v>LAC vs DAL - Q3 10:32.00</v>
-      </c>
-      <c r="M81">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N81">
-        <v>94.17</v>
-      </c>
-      <c r="O81">
-        <v>51.54</v>
-      </c>
-      <c r="P81">
-        <v>8</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81">
-        <v>94</v>
-      </c>
-      <c r="S81">
-        <v>51</v>
-      </c>
-      <c r="T81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>41900153</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82">
-        <v>50</v>
-      </c>
-      <c r="E82">
-        <v>41</v>
-      </c>
-      <c r="F82">
-        <v>9</v>
-      </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82" s="1">
-        <v>2.7893518518518519E-3</v>
-      </c>
-      <c r="I82" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" s="2" t="str">
+      <c r="J83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=274&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(16%20PTS)", "Dunk (16 PTS)")</f>
         <v>Dunk (16 PTS)</v>
       </c>
-      <c r="L82" s="2" t="str">
+      <c r="L83" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q2 04:01.00")</f>
         <v>LAC vs DAL - Q2 04:01.00</v>
       </c>
-      <c r="M82">
+      <c r="M83">
         <v>0.86</v>
       </c>
-      <c r="N82">
+      <c r="N83">
         <v>5.73</v>
-      </c>
-      <c r="O82">
-        <v>51.05</v>
-      </c>
-      <c r="P82">
-        <v>-5</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="R82">
-        <v>5</v>
-      </c>
-      <c r="S82">
-        <v>51</v>
-      </c>
-      <c r="T82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>41900231</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83">
-        <v>31</v>
-      </c>
-      <c r="E83">
-        <v>29</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83" s="1">
-        <v>4.6643518518518513E-4</v>
-      </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=124&amp;GameID=0041900231&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(10%20PTS)%20(L.%20Williams%201%20AST)", "Layup (10 PTS) (L. Williams 1 AST)")</f>
-        <v>Layup (10 PTS) (L. Williams 1 AST)</v>
-      </c>
-      <c r="L83" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900231/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 00:40.30")</f>
-        <v>LAC vs DEN - Q1 00:40.30</v>
-      </c>
-      <c r="M83">
-        <v>0.84</v>
-      </c>
-      <c r="N83">
-        <v>94.3</v>
       </c>
       <c r="O83">
         <v>51.05</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Q83">
         <v>1</v>
       </c>
       <c r="R83">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="S83">
         <v>51</v>
       </c>
-      <c r="T83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U83">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>41900235</v>
+        <v>41900237</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" s="1">
-        <v>6.2500000000000003E-3</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="I84" t="s">
         <v>21</v>
@@ -5929,489 +6612,553 @@
         <v>22</v>
       </c>
       <c r="K84" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=33&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(2%20PTS)%20(P.%20Beverley%201%20AST)", "Layup (2 PTS) (P. Beverley 1 AST)")</f>
+        <v>Layup (2 PTS) (P. Beverley 1 AST)</v>
+      </c>
+      <c r="L84" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 09:10.00")</f>
+        <v>LAC vs DEN - Q1 09:10.00</v>
+      </c>
+      <c r="M84">
+        <v>1.26</v>
+      </c>
+      <c r="N84">
+        <v>95.09</v>
+      </c>
+      <c r="O84">
+        <v>52.52</v>
+      </c>
+      <c r="P84">
+        <v>13</v>
+      </c>
+      <c r="Q84">
+        <v>-6</v>
+      </c>
+      <c r="R84">
+        <v>95</v>
+      </c>
+      <c r="S84">
+        <v>52</v>
+      </c>
+      <c r="T84">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U84">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>41900237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85">
+        <v>43</v>
+      </c>
+      <c r="E85">
+        <v>34</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=234&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(7%20PTS)", "Dunk (7 PTS)")</f>
+        <v>Dunk (7 PTS)</v>
+      </c>
+      <c r="L85" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 06:17.00")</f>
+        <v>LAC vs DEN - Q2 06:17.00</v>
+      </c>
+      <c r="M85">
+        <v>1.33</v>
+      </c>
+      <c r="N85">
+        <v>94.56</v>
+      </c>
+      <c r="O85">
+        <v>52.52</v>
+      </c>
+      <c r="P85">
+        <v>13</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>94</v>
+      </c>
+      <c r="S85">
+        <v>52</v>
+      </c>
+      <c r="T85">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U85">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>41900156</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>71</v>
+      </c>
+      <c r="E86">
+        <v>54</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1">
+        <v>5.0578703703703706E-3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=379&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(18%20PTS)", "Layup (18 PTS)")</f>
+        <v>Layup (18 PTS)</v>
+      </c>
+      <c r="L86" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 07:17.00")</f>
+        <v>LAC vs DAL - Q3 07:17.00</v>
+      </c>
+      <c r="M86">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N86">
+        <v>94.83</v>
+      </c>
+      <c r="O86">
+        <v>52.27</v>
+      </c>
+      <c r="P86">
+        <v>11</v>
+      </c>
+      <c r="Q86">
+        <v>-4</v>
+      </c>
+      <c r="R86">
+        <v>94</v>
+      </c>
+      <c r="S86">
+        <v>52</v>
+      </c>
+      <c r="T86">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U86">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>41900156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>76</v>
+      </c>
+      <c r="E87">
+        <v>54</v>
+      </c>
+      <c r="F87">
+        <v>22</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=387&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(20%20PTS)", "Layup (20 PTS)")</f>
+        <v>Layup (20 PTS)</v>
+      </c>
+      <c r="L87" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 06:18.00")</f>
+        <v>LAC vs DAL - Q3 06:18.00</v>
+      </c>
+      <c r="M87">
+        <v>1.81</v>
+      </c>
+      <c r="N87">
+        <v>93.51</v>
+      </c>
+      <c r="O87">
+        <v>52.27</v>
+      </c>
+      <c r="P87">
+        <v>11</v>
+      </c>
+      <c r="Q87">
+        <v>8</v>
+      </c>
+      <c r="R87">
+        <v>93</v>
+      </c>
+      <c r="S87">
+        <v>52</v>
+      </c>
+      <c r="T87">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U87">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>41900235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>4.8726851851851848E-3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=58&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(4%20PTS)", "Dunk (4 PTS)")</f>
+        <v>Dunk (4 PTS)</v>
+      </c>
+      <c r="L88" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 07:01.00")</f>
+        <v>LAC vs DEN - Q1 07:01.00</v>
+      </c>
+      <c r="M88">
+        <v>3.14</v>
+      </c>
+      <c r="N88">
+        <v>91.93</v>
+      </c>
+      <c r="O88">
+        <v>52.52</v>
+      </c>
+      <c r="P88">
+        <v>13</v>
+      </c>
+      <c r="Q88">
+        <v>23</v>
+      </c>
+      <c r="R88">
+        <v>91</v>
+      </c>
+      <c r="S88">
+        <v>52</v>
+      </c>
+      <c r="T88">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U88">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>41900235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>63</v>
+      </c>
+      <c r="E89">
+        <v>48</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=356&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%209'%20jumpshot%20(18%20PTS)", "9' jumpshot (18 PTS)")</f>
         <v>9' jumpshot (18 PTS)</v>
       </c>
-      <c r="L84" s="2" t="str">
+      <c r="L89" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 09:00.00")</f>
         <v>LAC vs DEN - Q3 09:00.00</v>
       </c>
-      <c r="M84">
+      <c r="M89">
         <v>9.39</v>
       </c>
-      <c r="N84">
+      <c r="N89">
         <v>14.93</v>
       </c>
-      <c r="O84">
+      <c r="O89">
         <v>52.03</v>
       </c>
-      <c r="P84">
+      <c r="P89">
         <v>-10</v>
       </c>
-      <c r="Q84">
+      <c r="Q89">
         <v>88</v>
       </c>
-      <c r="R84">
+      <c r="R89">
         <v>14</v>
       </c>
-      <c r="S84">
+      <c r="S89">
         <v>52</v>
       </c>
-      <c r="T84" t="s">
+      <c r="T89">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U89">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V89" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>41900236</v>
       </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85">
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
         <v>25</v>
       </c>
-      <c r="E85">
+      <c r="E90">
         <v>16</v>
       </c>
-      <c r="F85">
+      <c r="F90">
         <v>9</v>
       </c>
-      <c r="G85">
+      <c r="G90">
         <v>1</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H90" s="1">
         <v>1.9560185185185184E-3</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I90" t="s">
         <v>21</v>
       </c>
-      <c r="J85" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="2" t="str">
+      <c r="J90" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=125&amp;GameID=0041900236&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%207'%20jumpshot%20(9%20PTS)", "7' jumpshot (9 PTS)")</f>
         <v>7' jumpshot (9 PTS)</v>
       </c>
-      <c r="L85" s="2" t="str">
+      <c r="L90" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900236/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 02:49.00")</f>
         <v>LAC vs DEN - Q1 02:49.00</v>
       </c>
-      <c r="M85">
+      <c r="M90">
         <v>7.49</v>
       </c>
-      <c r="N85">
+      <c r="N90">
         <v>12.83</v>
       </c>
-      <c r="O85">
+      <c r="O90">
         <v>52.77</v>
       </c>
-      <c r="P85">
+      <c r="P90">
         <v>-14</v>
       </c>
-      <c r="Q85">
+      <c r="Q90">
         <v>68</v>
       </c>
-      <c r="R85">
+      <c r="R90">
         <v>12</v>
       </c>
-      <c r="S85">
+      <c r="S90">
         <v>52</v>
       </c>
-      <c r="T85" t="s">
+      <c r="T90">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U90">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V90" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>41900236</v>
       </c>
-      <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
         <v>26</v>
       </c>
-      <c r="D86">
+      <c r="D91">
         <v>13</v>
       </c>
-      <c r="E86">
+      <c r="E91">
         <v>8</v>
       </c>
-      <c r="F86">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="G86">
+      <c r="G91">
         <v>1</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H91" s="1">
         <v>4.8726851851851848E-3</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I91" t="s">
         <v>21</v>
       </c>
-      <c r="J86" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="2" t="str">
+      <c r="J91" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=57&amp;GameID=0041900236&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(5%20PTS)", "Dunk (5 PTS)")</f>
         <v>Dunk (5 PTS)</v>
       </c>
-      <c r="L86" s="2" t="str">
+      <c r="L91" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900236/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 07:01.00")</f>
         <v>LAC vs DEN - Q1 07:01.00</v>
       </c>
-      <c r="M86">
+      <c r="M91">
         <v>3.6</v>
       </c>
-      <c r="N86">
+      <c r="N91">
         <v>8.6199999999999992</v>
-      </c>
-      <c r="O86">
-        <v>52.27</v>
-      </c>
-      <c r="P86">
-        <v>-11</v>
-      </c>
-      <c r="Q86">
-        <v>29</v>
-      </c>
-      <c r="R86">
-        <v>8</v>
-      </c>
-      <c r="S86">
-        <v>52</v>
-      </c>
-      <c r="T86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>41900235</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87">
-        <v>15</v>
-      </c>
-      <c r="E87">
-        <v>7</v>
-      </c>
-      <c r="F87">
-        <v>8</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" s="1">
-        <v>4.8726851851851848E-3</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=58&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(4%20PTS)", "Dunk (4 PTS)")</f>
-        <v>Dunk (4 PTS)</v>
-      </c>
-      <c r="L87" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 07:01.00")</f>
-        <v>LAC vs DEN - Q1 07:01.00</v>
-      </c>
-      <c r="M87">
-        <v>3.14</v>
-      </c>
-      <c r="N87">
-        <v>91.93</v>
-      </c>
-      <c r="O87">
-        <v>52.52</v>
-      </c>
-      <c r="P87">
-        <v>13</v>
-      </c>
-      <c r="Q87">
-        <v>23</v>
-      </c>
-      <c r="R87">
-        <v>91</v>
-      </c>
-      <c r="S87">
-        <v>52</v>
-      </c>
-      <c r="T87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>41900156</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88">
-        <v>76</v>
-      </c>
-      <c r="E88">
-        <v>54</v>
-      </c>
-      <c r="F88">
-        <v>22</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88" s="1">
-        <v>4.3750000000000004E-3</v>
-      </c>
-      <c r="I88" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=387&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(20%20PTS)", "Layup (20 PTS)")</f>
-        <v>Layup (20 PTS)</v>
-      </c>
-      <c r="L88" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 06:18.00")</f>
-        <v>LAC vs DAL - Q3 06:18.00</v>
-      </c>
-      <c r="M88">
-        <v>1.81</v>
-      </c>
-      <c r="N88">
-        <v>93.51</v>
-      </c>
-      <c r="O88">
-        <v>52.27</v>
-      </c>
-      <c r="P88">
-        <v>11</v>
-      </c>
-      <c r="Q88">
-        <v>8</v>
-      </c>
-      <c r="R88">
-        <v>93</v>
-      </c>
-      <c r="S88">
-        <v>52</v>
-      </c>
-      <c r="T88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>41900237</v>
-      </c>
-      <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89">
-        <v>43</v>
-      </c>
-      <c r="E89">
-        <v>34</v>
-      </c>
-      <c r="F89">
-        <v>9</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89" s="1">
-        <v>4.363425925925926E-3</v>
-      </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=234&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(7%20PTS)", "Dunk (7 PTS)")</f>
-        <v>Dunk (7 PTS)</v>
-      </c>
-      <c r="L89" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 06:17.00")</f>
-        <v>LAC vs DEN - Q2 06:17.00</v>
-      </c>
-      <c r="M89">
-        <v>1.33</v>
-      </c>
-      <c r="N89">
-        <v>94.56</v>
-      </c>
-      <c r="O89">
-        <v>52.52</v>
-      </c>
-      <c r="P89">
-        <v>13</v>
-      </c>
-      <c r="Q89">
-        <v>-1</v>
-      </c>
-      <c r="R89">
-        <v>94</v>
-      </c>
-      <c r="S89">
-        <v>52</v>
-      </c>
-      <c r="T89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>41900237</v>
-      </c>
-      <c r="B90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90">
-        <v>6</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>6.3657407407407404E-3</v>
-      </c>
-      <c r="I90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=33&amp;GameID=0041900237&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(2%20PTS)%20(P.%20Beverley%201%20AST)", "Layup (2 PTS) (P. Beverley 1 AST)")</f>
-        <v>Layup (2 PTS) (P. Beverley 1 AST)</v>
-      </c>
-      <c r="L90" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900237/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 09:10.00")</f>
-        <v>LAC vs DEN - Q1 09:10.00</v>
-      </c>
-      <c r="M90">
-        <v>1.26</v>
-      </c>
-      <c r="N90">
-        <v>95.09</v>
-      </c>
-      <c r="O90">
-        <v>52.52</v>
-      </c>
-      <c r="P90">
-        <v>13</v>
-      </c>
-      <c r="Q90">
-        <v>-6</v>
-      </c>
-      <c r="R90">
-        <v>95</v>
-      </c>
-      <c r="S90">
-        <v>52</v>
-      </c>
-      <c r="T90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>41900156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91">
-        <v>71</v>
-      </c>
-      <c r="E91">
-        <v>54</v>
-      </c>
-      <c r="F91">
-        <v>17</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-      <c r="H91" s="1">
-        <v>5.0578703703703706E-3</v>
-      </c>
-      <c r="I91" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=379&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(18%20PTS)", "Layup (18 PTS)")</f>
-        <v>Layup (18 PTS)</v>
-      </c>
-      <c r="L91" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 07:17.00")</f>
-        <v>LAC vs DAL - Q3 07:17.00</v>
-      </c>
-      <c r="M91">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N91">
-        <v>94.83</v>
       </c>
       <c r="O91">
         <v>52.27</v>
       </c>
       <c r="P91">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="Q91">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="R91">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="S91">
         <v>52</v>
       </c>
-      <c r="T91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U91">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>41900235</v>
+        <v>41900152</v>
       </c>
       <c r="B92" t="s">
         <v>19</v>
@@ -6420,188 +7167,212 @@
         <v>25</v>
       </c>
       <c r="D92">
+        <v>69</v>
+      </c>
+      <c r="E92">
+        <v>73</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>4.9074074074074072E-3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=425&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(27%20PTS)%20(L.%20Williams%204%20AST)", "Layup (27 PTS) (L. Williams 4 AST)")</f>
+        <v>Layup (27 PTS) (L. Williams 4 AST)</v>
+      </c>
+      <c r="L92" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 07:04.00")</f>
+        <v>LAC vs DAL - Q3 07:04.00</v>
+      </c>
+      <c r="M92">
+        <v>2.19</v>
+      </c>
+      <c r="N92">
+        <v>94.04</v>
+      </c>
+      <c r="O92">
+        <v>53.99</v>
+      </c>
+      <c r="P92">
+        <v>20</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>94</v>
+      </c>
+      <c r="S92">
+        <v>53</v>
+      </c>
+      <c r="T92">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U92">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>41900235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
         <v>25</v>
       </c>
-      <c r="E92">
+      <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93">
         <v>16</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>9</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>1</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H93" s="1">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I93" t="s">
         <v>21</v>
       </c>
-      <c r="J92" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="2" t="str">
+      <c r="J93" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=107&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(9%20PTS)%20(L.%20Williams%201%20AST)", "Layup (9 PTS) (L. Williams 1 AST)")</f>
         <v>Layup (9 PTS) (L. Williams 1 AST)</v>
       </c>
-      <c r="L92" s="2" t="str">
+      <c r="L93" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 02:45.00")</f>
         <v>LAC vs DEN - Q1 02:45.00</v>
       </c>
-      <c r="M92">
+      <c r="M93">
         <v>2.86</v>
       </c>
-      <c r="N92">
+      <c r="N93">
         <v>92.59</v>
       </c>
-      <c r="O92">
+      <c r="O93">
         <v>53.5</v>
       </c>
-      <c r="P92">
+      <c r="P93">
         <v>18</v>
       </c>
-      <c r="Q92">
+      <c r="Q93">
         <v>17</v>
       </c>
-      <c r="R92">
+      <c r="R93">
         <v>92</v>
       </c>
-      <c r="S92">
+      <c r="S93">
         <v>53</v>
       </c>
-      <c r="T92" t="s">
+      <c r="T93">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U93">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>41900152</v>
       </c>
-      <c r="B93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>95</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>108</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>13</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>4</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H94" s="1">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I94" t="s">
         <v>24</v>
       </c>
-      <c r="J93" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="2" t="str">
+      <c r="J94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=626&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(31%20PTS)", "Layup (31 PTS)")</f>
         <v>Layup (31 PTS)</v>
       </c>
-      <c r="L93" s="2" t="str">
+      <c r="L94" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 07:15.00")</f>
         <v>LAC vs DAL - Q4 07:15.00</v>
       </c>
-      <c r="M93">
+      <c r="M94">
         <v>2.66</v>
       </c>
-      <c r="N93">
+      <c r="N94">
         <v>92.99</v>
       </c>
-      <c r="O93">
+      <c r="O94">
         <v>53.75</v>
       </c>
-      <c r="P93">
-        <v>19</v>
-      </c>
-      <c r="Q93">
+      <c r="P94">
+        <v>19</v>
+      </c>
+      <c r="Q94">
         <v>13</v>
       </c>
-      <c r="R93">
+      <c r="R94">
         <v>92</v>
-      </c>
-      <c r="S93">
-        <v>53</v>
-      </c>
-      <c r="T93" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>41900152</v>
-      </c>
-      <c r="B94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94">
-        <v>69</v>
-      </c>
-      <c r="E94">
-        <v>73</v>
-      </c>
-      <c r="F94">
-        <v>4</v>
-      </c>
-      <c r="G94">
-        <v>3</v>
-      </c>
-      <c r="H94" s="1">
-        <v>4.9074074074074072E-3</v>
-      </c>
-      <c r="I94" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=425&amp;GameID=0041900152&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(27%20PTS)%20(L.%20Williams%204%20AST)", "Layup (27 PTS) (L. Williams 4 AST)")</f>
-        <v>Layup (27 PTS) (L. Williams 4 AST)</v>
-      </c>
-      <c r="L94" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900152/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 07:04.00")</f>
-        <v>LAC vs DAL - Q3 07:04.00</v>
-      </c>
-      <c r="M94">
-        <v>2.19</v>
-      </c>
-      <c r="N94">
-        <v>94.04</v>
-      </c>
-      <c r="O94">
-        <v>53.99</v>
-      </c>
-      <c r="P94">
-        <v>20</v>
-      </c>
-      <c r="Q94">
-        <v>4</v>
-      </c>
-      <c r="R94">
-        <v>94</v>
       </c>
       <c r="S94">
         <v>53</v>
       </c>
-      <c r="T94" t="s">
+      <c r="T94">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U94">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V94" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>41900155</v>
       </c>
@@ -6661,139 +7432,163 @@
       <c r="S95">
         <v>53</v>
       </c>
-      <c r="T95" t="s">
+      <c r="T95">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U95">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>41900156</v>
+        <v>41900232</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="D96">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" s="1">
-        <v>7.9629629629629634E-3</v>
+        <v>5.1273148148148146E-3</v>
       </c>
       <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=56&amp;GameID=0041900232&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(2%20PTS)", "Jumpshot (2 PTS)")</f>
+        <v>Jumpshot (2 PTS)</v>
+      </c>
+      <c r="L96" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900232/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 07:23.00")</f>
+        <v>LAC vs DEN - Q1 07:23.00</v>
+      </c>
+      <c r="M96">
+        <v>2.38</v>
+      </c>
+      <c r="N96">
+        <v>94.69</v>
+      </c>
+      <c r="O96">
+        <v>54.73</v>
+      </c>
+      <c r="P96">
         <v>24</v>
       </c>
-      <c r="J96" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=326&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2027'%203PT%20%20(14%20PTS)%20(J.%20Green%201%20AST)", "27' 3PT  (14 PTS) (J. Green 1 AST)")</f>
-        <v>27' 3PT  (14 PTS) (J. Green 1 AST)</v>
-      </c>
-      <c r="L96" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 11:28.00")</f>
-        <v>LAC vs DAL - Q3 11:28.00</v>
-      </c>
-      <c r="M96">
-        <v>26.81</v>
-      </c>
-      <c r="N96">
-        <v>66.569999999999993</v>
-      </c>
-      <c r="O96">
-        <v>54.48</v>
-      </c>
-      <c r="P96">
-        <v>22</v>
-      </c>
       <c r="Q96">
-        <v>262</v>
+        <v>-3</v>
       </c>
       <c r="R96">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="S96">
         <v>54</v>
       </c>
-      <c r="T96" t="s">
+      <c r="T96">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U96">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>41900156</v>
+        <v>41900235</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D97">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E97">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="H97" s="1">
-        <v>4.0740740740740737E-3</v>
+        <v>2.7662037037037039E-3</v>
       </c>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
         <v>22</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=240&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2011'%20jumpshot%20(9%20PTS)", "11' jumpshot (9 PTS)")</f>
-        <v>11' jumpshot (9 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=248&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(14%20PTS)", "Dunk (14 PTS)")</f>
+        <v>Dunk (14 PTS)</v>
       </c>
       <c r="L97" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q2 05:52.00")</f>
-        <v>LAC vs DAL - Q2 05:52.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 03:59.00")</f>
+        <v>LAC vs DEN - Q2 03:59.00</v>
       </c>
       <c r="M97">
-        <v>11.17</v>
+        <v>2.19</v>
       </c>
       <c r="N97">
-        <v>16.64</v>
+        <v>94.43</v>
       </c>
       <c r="O97">
-        <v>54.48</v>
+        <v>54.24</v>
       </c>
       <c r="P97">
-        <v>-22</v>
+        <v>21</v>
       </c>
       <c r="Q97">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="R97">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="S97">
         <v>54</v>
       </c>
-      <c r="T97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U97">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>41900153</v>
       </c>
@@ -6853,395 +7648,451 @@
       <c r="S98">
         <v>54</v>
       </c>
-      <c r="T98" t="s">
+      <c r="T98">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U98">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>41900232</v>
+        <v>41900156</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" s="1">
-        <v>5.1273148148148146E-3</v>
+        <v>7.9629629629629634E-3</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J99" t="s">
         <v>22</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=56&amp;GameID=0041900232&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(2%20PTS)", "Jumpshot (2 PTS)")</f>
-        <v>Jumpshot (2 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=326&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2027'%203PT%20%20(14%20PTS)%20(J.%20Green%201%20AST)", "27' 3PT  (14 PTS) (J. Green 1 AST)")</f>
+        <v>27' 3PT  (14 PTS) (J. Green 1 AST)</v>
       </c>
       <c r="L99" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900232/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 07:23.00")</f>
-        <v>LAC vs DEN - Q1 07:23.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 11:28.00")</f>
+        <v>LAC vs DAL - Q3 11:28.00</v>
       </c>
       <c r="M99">
-        <v>2.38</v>
+        <v>26.81</v>
       </c>
       <c r="N99">
-        <v>94.69</v>
+        <v>66.569999999999993</v>
       </c>
       <c r="O99">
-        <v>54.73</v>
+        <v>54.48</v>
       </c>
       <c r="P99">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q99">
-        <v>-3</v>
+        <v>262</v>
       </c>
       <c r="R99">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="S99">
         <v>54</v>
       </c>
-      <c r="T99" t="s">
+      <c r="T99">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U99">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V99" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>41900235</v>
+        <v>41900156</v>
       </c>
       <c r="B100" t="s">
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E100">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F100">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
       <c r="H100" s="1">
-        <v>2.7662037037037039E-3</v>
+        <v>4.0740740740740737E-3</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J100" t="s">
         <v>22</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=248&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20dunk%20(14%20PTS)", "Dunk (14 PTS)")</f>
-        <v>Dunk (14 PTS)</v>
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=240&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2011'%20jumpshot%20(9%20PTS)", "11' jumpshot (9 PTS)")</f>
+        <v>11' jumpshot (9 PTS)</v>
       </c>
       <c r="L100" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 03:59.00")</f>
-        <v>LAC vs DEN - Q2 03:59.00</v>
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q2 05:52.00")</f>
+        <v>LAC vs DAL - Q2 05:52.00</v>
       </c>
       <c r="M100">
-        <v>2.19</v>
+        <v>11.17</v>
       </c>
       <c r="N100">
-        <v>94.43</v>
+        <v>16.64</v>
       </c>
       <c r="O100">
-        <v>54.24</v>
+        <v>54.48</v>
       </c>
       <c r="P100">
-        <v>21</v>
+        <v>-22</v>
       </c>
       <c r="Q100">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="R100">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="S100">
         <v>54</v>
       </c>
-      <c r="T100" t="s">
+      <c r="T100">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U100">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>41900154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>111</v>
+      </c>
+      <c r="E101">
+        <v>116</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=645&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(23%20PTS)", "Jumpshot (23 PTS)")</f>
+        <v>Jumpshot (23 PTS)</v>
+      </c>
+      <c r="L101" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 03:06.00")</f>
+        <v>LAC vs DAL - Q4 03:06.00</v>
+      </c>
+      <c r="M101">
+        <v>3.09</v>
+      </c>
+      <c r="N101">
+        <v>93.25</v>
+      </c>
+      <c r="O101">
+        <v>55.22</v>
+      </c>
+      <c r="P101">
+        <v>26</v>
+      </c>
+      <c r="Q101">
+        <v>11</v>
+      </c>
+      <c r="R101">
+        <v>93</v>
+      </c>
+      <c r="S101">
+        <v>55</v>
+      </c>
+      <c r="T101">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U101">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>41900153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102">
+        <v>98</v>
+      </c>
+      <c r="E102">
+        <v>82</v>
+      </c>
+      <c r="F102">
+        <v>16</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102" s="1">
+        <v>5.2546296296296293E-4</v>
+      </c>
+      <c r="I102" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=478&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(27%20PTS)", "Layup (27 PTS)")</f>
+        <v>Layup (27 PTS)</v>
+      </c>
+      <c r="L102" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 00:45.40")</f>
+        <v>LAC vs DAL - Q3 00:45.40</v>
+      </c>
+      <c r="M102">
+        <v>3.8</v>
+      </c>
+      <c r="N102">
+        <v>92.07</v>
+      </c>
+      <c r="O102">
+        <v>55.22</v>
+      </c>
+      <c r="P102">
+        <v>26</v>
+      </c>
+      <c r="Q102">
+        <v>22</v>
+      </c>
+      <c r="R102">
+        <v>92</v>
+      </c>
+      <c r="S102">
+        <v>55</v>
+      </c>
+      <c r="T102">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U102">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>41900235</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>28</v>
       </c>
-      <c r="C101" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101">
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103">
         <v>18</v>
       </c>
-      <c r="E101">
+      <c r="E103">
         <v>14</v>
       </c>
-      <c r="F101">
+      <c r="F103">
         <v>4</v>
       </c>
-      <c r="G101">
+      <c r="G103">
         <v>1</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H103" s="1">
         <v>3.2870370370370371E-3</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I103" t="s">
         <v>21</v>
       </c>
-      <c r="J101" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="2" t="str">
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=80&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2027'%203PT%20%20(7%20PTS)%20(L.%20Shamet%201%20AST)", "27' 3PT  (7 PTS) (L. Shamet 1 AST)")</f>
         <v>27' 3PT  (7 PTS) (L. Shamet 1 AST)</v>
       </c>
-      <c r="L101" s="2" t="str">
+      <c r="L103" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 04:44.00")</f>
         <v>LAC vs DEN - Q1 04:44.00</v>
       </c>
-      <c r="M101">
+      <c r="M103">
         <v>27</v>
       </c>
-      <c r="N101">
+      <c r="N103">
         <v>66.44</v>
       </c>
-      <c r="O101">
+      <c r="O103">
         <v>55.95</v>
       </c>
-      <c r="P101">
+      <c r="P103">
         <v>30</v>
       </c>
-      <c r="Q101">
+      <c r="Q103">
         <v>263</v>
       </c>
-      <c r="R101">
+      <c r="R103">
         <v>66</v>
       </c>
-      <c r="S101">
+      <c r="S103">
         <v>55</v>
       </c>
-      <c r="T101" t="s">
+      <c r="T103">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U103">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>41900233</v>
       </c>
-      <c r="B102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102">
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104">
         <v>40</v>
       </c>
-      <c r="E102">
+      <c r="E104">
         <v>46</v>
       </c>
-      <c r="F102">
+      <c r="F104">
         <v>6</v>
       </c>
-      <c r="G102">
+      <c r="G104">
         <v>2</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H104" s="1">
         <v>5.6134259259259262E-3</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I104" t="s">
         <v>21</v>
       </c>
-      <c r="J102" t="s">
-        <v>22</v>
-      </c>
-      <c r="K102" s="2" t="str">
+      <c r="J104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=204&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2013'%20jumpshot%20(8%20PTS)", "13' jumpshot (8 PTS)")</f>
         <v>13' jumpshot (8 PTS)</v>
       </c>
-      <c r="L102" s="2" t="str">
+      <c r="L104" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q2 08:05.00")</f>
         <v>LAC vs DEN - Q2 08:05.00</v>
       </c>
-      <c r="M102">
+      <c r="M104">
         <v>12.6</v>
       </c>
-      <c r="N102">
+      <c r="N104">
         <v>18.079999999999998</v>
       </c>
-      <c r="O102">
+      <c r="O104">
         <v>55.46</v>
       </c>
-      <c r="P102">
+      <c r="P104">
         <v>-27</v>
       </c>
-      <c r="Q102">
+      <c r="Q104">
         <v>117</v>
       </c>
-      <c r="R102">
+      <c r="R104">
         <v>18</v>
-      </c>
-      <c r="S102">
-        <v>55</v>
-      </c>
-      <c r="T102" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>41900153</v>
-      </c>
-      <c r="B103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103">
-        <v>98</v>
-      </c>
-      <c r="E103">
-        <v>82</v>
-      </c>
-      <c r="F103">
-        <v>16</v>
-      </c>
-      <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103" s="1">
-        <v>5.2546296296296293E-4</v>
-      </c>
-      <c r="I103" t="s">
-        <v>24</v>
-      </c>
-      <c r="J103" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=478&amp;GameID=0041900153&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(27%20PTS)", "Layup (27 PTS)")</f>
-        <v>Layup (27 PTS)</v>
-      </c>
-      <c r="L103" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900153/play-by-play?watchFullGame=true", "LAC vs DAL - Q3 00:45.40")</f>
-        <v>LAC vs DAL - Q3 00:45.40</v>
-      </c>
-      <c r="M103">
-        <v>3.8</v>
-      </c>
-      <c r="N103">
-        <v>92.07</v>
-      </c>
-      <c r="O103">
-        <v>55.22</v>
-      </c>
-      <c r="P103">
-        <v>26</v>
-      </c>
-      <c r="Q103">
-        <v>22</v>
-      </c>
-      <c r="R103">
-        <v>92</v>
-      </c>
-      <c r="S103">
-        <v>55</v>
-      </c>
-      <c r="T103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>41900154</v>
-      </c>
-      <c r="B104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104">
-        <v>111</v>
-      </c>
-      <c r="E104">
-        <v>116</v>
-      </c>
-      <c r="F104">
-        <v>5</v>
-      </c>
-      <c r="G104">
-        <v>4</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2.1527777777777778E-3</v>
-      </c>
-      <c r="I104" t="s">
-        <v>24</v>
-      </c>
-      <c r="J104" t="s">
-        <v>22</v>
-      </c>
-      <c r="K104" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=645&amp;GameID=0041900154&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(23%20PTS)", "Jumpshot (23 PTS)")</f>
-        <v>Jumpshot (23 PTS)</v>
-      </c>
-      <c r="L104" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900154/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 03:06.00")</f>
-        <v>LAC vs DAL - Q4 03:06.00</v>
-      </c>
-      <c r="M104">
-        <v>3.09</v>
-      </c>
-      <c r="N104">
-        <v>93.25</v>
-      </c>
-      <c r="O104">
-        <v>55.22</v>
-      </c>
-      <c r="P104">
-        <v>26</v>
-      </c>
-      <c r="Q104">
-        <v>11</v>
-      </c>
-      <c r="R104">
-        <v>93</v>
       </c>
       <c r="S104">
         <v>55</v>
       </c>
-      <c r="T104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U104">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>41900236</v>
       </c>
@@ -7301,139 +8152,163 @@
       <c r="S105">
         <v>56</v>
       </c>
-      <c r="T105" t="s">
+      <c r="T105">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U105">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V105" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
+        <v>41900235</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>27</v>
+      </c>
+      <c r="E106">
+        <v>23</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>2.9861111111111109E-4</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=143&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(11%20PTS)", "Layup (11 PTS)")</f>
+        <v>Layup (11 PTS)</v>
+      </c>
+      <c r="L106" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 00:25.80")</f>
+        <v>LAC vs DEN - Q1 00:25.80</v>
+      </c>
+      <c r="M106">
+        <v>4.34</v>
+      </c>
+      <c r="N106">
+        <v>92.59</v>
+      </c>
+      <c r="O106">
+        <v>57.42</v>
+      </c>
+      <c r="P106">
+        <v>37</v>
+      </c>
+      <c r="Q106">
+        <v>17</v>
+      </c>
+      <c r="R106">
+        <v>92</v>
+      </c>
+      <c r="S106">
+        <v>57</v>
+      </c>
+      <c r="T106">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U106">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>41900156</v>
       </c>
-      <c r="B106" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106">
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107">
         <v>54</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>49</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <v>5</v>
       </c>
-      <c r="G106">
+      <c r="G107">
         <v>2</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I107" t="s">
         <v>24</v>
       </c>
-      <c r="J106" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="2" t="str">
+      <c r="J107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=307&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2015'%20jumpshot%20(11%20PTS)", "15' jumpshot (11 PTS)")</f>
         <v>15' jumpshot (11 PTS)</v>
       </c>
-      <c r="L106" s="2" t="str">
+      <c r="L107" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q2 01:10.00")</f>
         <v>LAC vs DAL - Q2 01:10.00</v>
       </c>
-      <c r="M106">
+      <c r="M107">
         <v>14.51</v>
       </c>
-      <c r="N106">
+      <c r="N107">
         <v>19.920000000000002</v>
-      </c>
-      <c r="O106">
-        <v>57.42</v>
-      </c>
-      <c r="P106">
-        <v>-37</v>
-      </c>
-      <c r="Q106">
-        <v>135</v>
-      </c>
-      <c r="R106">
-        <v>19</v>
-      </c>
-      <c r="S106">
-        <v>57</v>
-      </c>
-      <c r="T106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>41900235</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107">
-        <v>27</v>
-      </c>
-      <c r="E107">
-        <v>23</v>
-      </c>
-      <c r="F107">
-        <v>4</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" s="1">
-        <v>2.9861111111111109E-4</v>
-      </c>
-      <c r="I107" t="s">
-        <v>21</v>
-      </c>
-      <c r="J107" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=143&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20layup%20(11%20PTS)", "Layup (11 PTS)")</f>
-        <v>Layup (11 PTS)</v>
-      </c>
-      <c r="L107" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q1 00:25.80")</f>
-        <v>LAC vs DEN - Q1 00:25.80</v>
-      </c>
-      <c r="M107">
-        <v>4.34</v>
-      </c>
-      <c r="N107">
-        <v>92.59</v>
       </c>
       <c r="O107">
         <v>57.42</v>
       </c>
       <c r="P107">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="Q107">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="R107">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="S107">
         <v>57</v>
       </c>
-      <c r="T107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T107">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U107">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>41900153</v>
       </c>
@@ -7493,13 +8368,21 @@
       <c r="S108">
         <v>58</v>
       </c>
-      <c r="T108" t="s">
+      <c r="T108">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U108">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V108" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>41900233</v>
+        <v>41900234</v>
       </c>
       <c r="B109" t="s">
         <v>19</v>
@@ -7508,19 +8391,19 @@
         <v>20</v>
       </c>
       <c r="D109">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E109">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109" s="1">
-        <v>6.4930555555555557E-3</v>
+        <v>6.898148148148148E-3</v>
       </c>
       <c r="I109" t="s">
         <v>21</v>
@@ -7529,103 +8412,119 @@
         <v>22</v>
       </c>
       <c r="K109" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=372&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(19%20PTS)", "Jumpshot (19 PTS)")</f>
+        <v>Jumpshot (19 PTS)</v>
+      </c>
+      <c r="L109" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 09:56.00")</f>
+        <v>LAC vs DEN - Q3 09:56.00</v>
+      </c>
+      <c r="M109">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N109">
+        <v>93.12</v>
+      </c>
+      <c r="O109">
+        <v>59.14</v>
+      </c>
+      <c r="P109">
+        <v>46</v>
+      </c>
+      <c r="Q109">
+        <v>12</v>
+      </c>
+      <c r="R109">
+        <v>93</v>
+      </c>
+      <c r="S109">
+        <v>59</v>
+      </c>
+      <c r="T109">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U109">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>41900233</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>64</v>
+      </c>
+      <c r="E110">
+        <v>67</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1">
+        <v>6.4930555555555557E-3</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=341&amp;GameID=0041900233&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2016'%20jumpshot%20(16%20PTS)%20(P.%20George%203%20AST)", "16' jumpshot (16 PTS) (P. George 3 AST)")</f>
         <v>16' jumpshot (16 PTS) (P. George 3 AST)</v>
       </c>
-      <c r="L109" s="2" t="str">
+      <c r="L110" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900233/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 09:21.00")</f>
         <v>LAC vs DEN - Q3 09:21.00</v>
       </c>
-      <c r="M109">
+      <c r="M110">
         <v>15.86</v>
       </c>
-      <c r="N109">
+      <c r="N110">
         <v>78.930000000000007</v>
       </c>
-      <c r="O109">
+      <c r="O110">
         <v>59.63</v>
       </c>
-      <c r="P109">
+      <c r="P110">
         <v>48</v>
       </c>
-      <c r="Q109">
+      <c r="Q110">
         <v>146</v>
       </c>
-      <c r="R109">
+      <c r="R110">
         <v>78</v>
-      </c>
-      <c r="S109">
-        <v>59</v>
-      </c>
-      <c r="T109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>41900234</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110">
-        <v>50</v>
-      </c>
-      <c r="E110">
-        <v>48</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
-      <c r="H110" s="1">
-        <v>6.898148148148148E-3</v>
-      </c>
-      <c r="I110" t="s">
-        <v>21</v>
-      </c>
-      <c r="J110" t="s">
-        <v>22</v>
-      </c>
-      <c r="K110" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=372&amp;GameID=0041900234&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%20jumpshot%20(19%20PTS)", "Jumpshot (19 PTS)")</f>
-        <v>Jumpshot (19 PTS)</v>
-      </c>
-      <c r="L110" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900234/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 09:56.00")</f>
-        <v>LAC vs DEN - Q3 09:56.00</v>
-      </c>
-      <c r="M110">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N110">
-        <v>93.12</v>
-      </c>
-      <c r="O110">
-        <v>59.14</v>
-      </c>
-      <c r="P110">
-        <v>46</v>
-      </c>
-      <c r="Q110">
-        <v>12</v>
-      </c>
-      <c r="R110">
-        <v>93</v>
       </c>
       <c r="S110">
         <v>59</v>
       </c>
-      <c r="T110" t="s">
+      <c r="T110">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U110">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>60</v>
+      </c>
+      <c r="V110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>41900154</v>
       </c>
@@ -7685,11 +8584,19 @@
       <c r="S111">
         <v>61</v>
       </c>
-      <c r="T111" t="s">
+      <c r="T111">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U111">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>41900152</v>
       </c>
@@ -7749,11 +8656,19 @@
       <c r="S112">
         <v>62</v>
       </c>
-      <c r="T112" t="s">
+      <c r="T112">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U112">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V112" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>41900155</v>
       </c>
@@ -7813,11 +8728,19 @@
       <c r="S113">
         <v>63</v>
       </c>
-      <c r="T113" t="s">
+      <c r="T113">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U113">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V113" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>41900151</v>
       </c>
@@ -7877,11 +8800,19 @@
       <c r="S114">
         <v>64</v>
       </c>
-      <c r="T114" t="s">
+      <c r="T114">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U114">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V114" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>41900156</v>
       </c>
@@ -7941,11 +8872,19 @@
       <c r="S115">
         <v>64</v>
       </c>
-      <c r="T115" t="s">
+      <c r="T115">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U115">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V115" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>41900152</v>
       </c>
@@ -8005,11 +8944,19 @@
       <c r="S116">
         <v>64</v>
       </c>
-      <c r="T116" t="s">
+      <c r="T116">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>20</v>
+      </c>
+      <c r="U116">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V116" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>41900236</v>
       </c>
@@ -8069,11 +9016,19 @@
       <c r="S117">
         <v>66</v>
       </c>
-      <c r="T117" t="s">
+      <c r="T117">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U117">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V117" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>41900235</v>
       </c>
@@ -8133,11 +9088,19 @@
       <c r="S118">
         <v>67</v>
       </c>
-      <c r="T118" t="s">
+      <c r="T118">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U118">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V118" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>41900236</v>
       </c>
@@ -8197,11 +9160,19 @@
       <c r="S119">
         <v>69</v>
       </c>
-      <c r="T119" t="s">
+      <c r="T119">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U119">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V119" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>41900154</v>
       </c>
@@ -8261,11 +9232,19 @@
       <c r="S120">
         <v>70</v>
       </c>
-      <c r="T120" t="s">
+      <c r="T120">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U120">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="V120" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>41900155</v>
       </c>
@@ -8325,11 +9304,19 @@
       <c r="S121">
         <v>71</v>
       </c>
-      <c r="T121" t="s">
+      <c r="T121">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>70</v>
+      </c>
+      <c r="U121">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V121" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>41900153</v>
       </c>
@@ -8389,11 +9376,19 @@
       <c r="S122">
         <v>71</v>
       </c>
-      <c r="T122" t="s">
+      <c r="T122">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U122">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V122" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>41900232</v>
       </c>
@@ -8453,11 +9448,19 @@
       <c r="S123">
         <v>72</v>
       </c>
-      <c r="T123" t="s">
+      <c r="T123">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="U123">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V123" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>41900235</v>
       </c>
@@ -8517,11 +9520,19 @@
       <c r="S124">
         <v>73</v>
       </c>
-      <c r="T124" t="s">
+      <c r="T124">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U124">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V124" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>41900235</v>
       </c>
@@ -8581,11 +9592,19 @@
       <c r="S125">
         <v>73</v>
       </c>
-      <c r="T125" t="s">
+      <c r="T125">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>10</v>
+      </c>
+      <c r="U125">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V125" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>41900234</v>
       </c>
@@ -8645,11 +9664,19 @@
       <c r="S126">
         <v>76</v>
       </c>
-      <c r="T126" t="s">
+      <c r="T126">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U126">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V126" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>41900156</v>
       </c>
@@ -8709,139 +9736,163 @@
       <c r="S127">
         <v>78</v>
       </c>
-      <c r="T127" t="s">
+      <c r="T127">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="U127">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V127" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>41900156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>95</v>
+      </c>
+      <c r="E128">
+        <v>84</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
+      <c r="H128" s="1">
+        <v>5.2662037037037035E-3</v>
+      </c>
+      <c r="I128" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=538&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2015'%20jumpshot%20(29%20PTS)", "15' jumpshot (29 PTS)")</f>
+        <v>15' jumpshot (29 PTS)</v>
+      </c>
+      <c r="L128" s="2" t="str">
+        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 07:35.00")</f>
+        <v>LAC vs DAL - Q4 07:35.00</v>
+      </c>
+      <c r="M128">
+        <v>15.36</v>
+      </c>
+      <c r="N128">
+        <v>92.07</v>
+      </c>
+      <c r="O128">
+        <v>80.22</v>
+      </c>
+      <c r="P128">
+        <v>151</v>
+      </c>
+      <c r="Q128">
+        <v>22</v>
+      </c>
+      <c r="R128">
+        <v>92</v>
+      </c>
+      <c r="S128">
+        <v>80</v>
+      </c>
+      <c r="T128">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U128">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>41900235</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>28</v>
       </c>
-      <c r="C128" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128">
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129">
         <v>80</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>67</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <v>13</v>
       </c>
-      <c r="G128">
+      <c r="G129">
         <v>3</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H129" s="1">
         <v>9.837962962962962E-4</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I129" t="s">
         <v>21</v>
       </c>
-      <c r="J128" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="2" t="str">
+      <c r="J129" t="s">
+        <v>22</v>
+      </c>
+      <c r="K129" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=433&amp;GameID=0041900235&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2025'%203PT%20%20(23%20PTS)%20(L.%20Williams%204%20AST)", "25' 3PT  (23 PTS) (L. Williams 4 AST)")</f>
         <v>25' 3PT  (23 PTS) (L. Williams 4 AST)</v>
       </c>
-      <c r="L128" s="2" t="str">
+      <c r="L129" s="2" t="str">
         <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900235/play-by-play?watchFullGame=true", "LAC vs DEN - Q3 01:25.00")</f>
         <v>LAC vs DEN - Q3 01:25.00</v>
       </c>
-      <c r="M128">
+      <c r="M129">
         <v>25.26</v>
       </c>
-      <c r="N128">
+      <c r="N129">
         <v>26.23</v>
       </c>
-      <c r="O128">
+      <c r="O129">
         <v>80.95</v>
       </c>
-      <c r="P128">
+      <c r="P129">
         <v>-155</v>
       </c>
-      <c r="Q128">
+      <c r="Q129">
         <v>194</v>
       </c>
-      <c r="R128">
+      <c r="R129">
         <v>26</v>
-      </c>
-      <c r="S128">
-        <v>80</v>
-      </c>
-      <c r="T128" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>41900156</v>
-      </c>
-      <c r="B129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129">
-        <v>95</v>
-      </c>
-      <c r="E129">
-        <v>84</v>
-      </c>
-      <c r="F129">
-        <v>11</v>
-      </c>
-      <c r="G129">
-        <v>4</v>
-      </c>
-      <c r="H129" s="1">
-        <v>5.2662037037037035E-3</v>
-      </c>
-      <c r="I129" t="s">
-        <v>24</v>
-      </c>
-      <c r="J129" t="s">
-        <v>22</v>
-      </c>
-      <c r="K129" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/stats/events?CFID=&amp;CFPARAMS=&amp;GameEventID=538&amp;GameID=0041900156&amp;Season=2019-20&amp;flag=1&amp;title=Leonard%2015'%20jumpshot%20(29%20PTS)", "15' jumpshot (29 PTS)")</f>
-        <v>15' jumpshot (29 PTS)</v>
-      </c>
-      <c r="L129" s="2" t="str">
-        <f>HYPERLINK("https://www.nba.com/game/...-vs-...-0041900156/play-by-play?watchFullGame=true", "LAC vs DAL - Q4 07:35.00")</f>
-        <v>LAC vs DAL - Q4 07:35.00</v>
-      </c>
-      <c r="M129">
-        <v>15.36</v>
-      </c>
-      <c r="N129">
-        <v>92.07</v>
-      </c>
-      <c r="O129">
-        <v>80.22</v>
-      </c>
-      <c r="P129">
-        <v>151</v>
-      </c>
-      <c r="Q129">
-        <v>22</v>
-      </c>
-      <c r="R129">
-        <v>92</v>
       </c>
       <c r="S129">
         <v>80</v>
       </c>
-      <c r="T129" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T129">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U129">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>80</v>
+      </c>
+      <c r="V129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>41900155</v>
       </c>
@@ -8901,11 +9952,19 @@
       <c r="S130">
         <v>86</v>
       </c>
-      <c r="T130" t="s">
+      <c r="T130">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U130">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="V130" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>41900234</v>
       </c>
@@ -8965,11 +10024,19 @@
       <c r="S131">
         <v>90</v>
       </c>
-      <c r="T131" t="s">
+      <c r="T131">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>30</v>
+      </c>
+      <c r="U131">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>90</v>
+      </c>
+      <c r="V131" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>41900154</v>
       </c>
@@ -9029,7 +10096,15 @@
       <c r="S132">
         <v>95</v>
       </c>
-      <c r="T132" t="s">
+      <c r="T132">
+        <f>CEILING(Table1[[#This Row],[trueX]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="U132">
+        <f>CEILING(Table1[[#This Row],[trueY]], 10)</f>
+        <v>100</v>
+      </c>
+      <c r="V132" t="s">
         <v>29</v>
       </c>
     </row>
